--- a/doc/DeepPurple_Gaant.xlsx
+++ b/doc/DeepPurple_Gaant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Development\DeepPurple\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594A5347-1FE3-3949-ABF1-28CD22AC830D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDECBA6-9122-44F3-A1D2-73873F13AEA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2580" windowWidth="28040" windowHeight="12440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="2580" windowWidth="28035" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>hours</t>
   </si>
@@ -186,6 +186,30 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Identify Requirements</t>
+  </si>
+  <si>
+    <t>Design System</t>
+  </si>
+  <si>
+    <t>Program Basic System</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Integrate Level Layouts</t>
+  </si>
+  <si>
+    <t>Integration Testing</t>
+  </si>
+  <si>
+    <t>Build Advanced System</t>
+  </si>
+  <si>
+    <t>Final Testing</t>
   </si>
 </sst>
 </file>
@@ -797,27 +821,27 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C2" s="59" t="s">
         <v>9</v>
       </c>
@@ -840,7 +864,7 @@
       <c r="P2" s="60"/>
       <c r="Q2" s="61"/>
     </row>
-    <row r="3" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
@@ -879,7 +903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>41</v>
       </c>
@@ -931,7 +955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
@@ -983,7 +1007,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>42</v>
       </c>
@@ -1035,7 +1059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>38</v>
       </c>
@@ -1087,7 +1111,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
@@ -1139,7 +1163,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>39</v>
       </c>
@@ -1191,7 +1215,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>9</v>
       </c>
@@ -1261,19 +1285,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1382,7 +1406,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1416,7 +1440,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1447,7 +1471,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1478,7 +1502,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1509,7 +1533,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1540,7 +1564,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1571,7 +1595,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1602,7 +1626,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(B3:B9)</f>
         <v>0</v>
@@ -1634,7 +1658,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -1662,7 +1686,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1696,7 +1720,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1727,7 +1751,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1758,7 +1782,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1789,7 +1813,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1820,7 +1844,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -1851,7 +1875,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -1882,7 +1906,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -1913,7 +1937,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B12:B19)</f>
         <v>0</v>
@@ -1946,7 +1970,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1974,7 +1998,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2008,7 +2032,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
@@ -2039,7 +2063,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2070,7 +2094,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -2101,7 +2125,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0</v>
       </c>
@@ -2132,7 +2156,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0</v>
       </c>
@@ -2163,7 +2187,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>SUM(B22:B27)</f>
         <v>0</v>
@@ -2195,7 +2219,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2223,7 +2247,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2257,7 +2281,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0</v>
       </c>
@@ -2288,7 +2312,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0</v>
       </c>
@@ -2319,7 +2343,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0</v>
       </c>
@@ -2350,7 +2374,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0</v>
       </c>
@@ -2381,7 +2405,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0</v>
       </c>
@@ -2412,7 +2436,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0</v>
       </c>
@@ -2443,7 +2467,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -2471,7 +2495,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -2505,7 +2529,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0</v>
       </c>
@@ -2536,7 +2560,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0</v>
       </c>
@@ -2567,7 +2591,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0</v>
       </c>
@@ -2598,7 +2622,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0</v>
       </c>
@@ -2629,7 +2653,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0</v>
       </c>
@@ -2660,7 +2684,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0</v>
       </c>
@@ -2691,7 +2715,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
@@ -2719,15 +2743,15 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -2753,12 +2777,15 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
       <c r="B47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2784,12 +2811,15 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
       <c r="B48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2815,9 +2845,12 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2846,12 +2879,15 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
       <c r="B50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2877,12 +2913,15 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
       <c r="B51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2908,29 +2947,35 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
       <c r="B52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="7">
         <f>B53*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C54" s="7">
         <f>C53*100</f>
@@ -2950,9 +2995,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +3016,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
@@ -3006,7 +3051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
@@ -3029,7 +3074,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
@@ -3056,7 +3101,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -3081,7 +3126,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
@@ -3108,7 +3153,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
@@ -3135,7 +3180,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -3162,7 +3207,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
@@ -3189,7 +3234,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -3238,15 +3283,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
   </sheetData>
@@ -3259,20 +3304,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="36" t="s">
         <v>24</v>
@@ -3329,7 +3374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>41</v>
       </c>
@@ -3355,7 +3400,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="50"/>
       <c r="B3" s="39" t="s">
         <v>34</v>
@@ -3379,7 +3424,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="39" t="s">
         <v>46</v>
@@ -3405,7 +3450,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
       <c r="B5" s="39" t="s">
         <v>28</v>
@@ -3431,7 +3476,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>37</v>
       </c>
@@ -3457,7 +3502,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
       <c r="B7" s="39" t="s">
         <v>34</v>
@@ -3481,7 +3526,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="39" t="s">
         <v>47</v>
@@ -3507,7 +3552,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="39" t="s">
         <v>28</v>
@@ -3533,7 +3578,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>42</v>
       </c>
@@ -3559,7 +3604,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
       <c r="B11" s="39" t="s">
         <v>34</v>
@@ -3583,7 +3628,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="57" t="s">
         <v>43</v>
@@ -3609,7 +3654,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="44"/>
       <c r="C13" s="40">
@@ -3631,7 +3676,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="44"/>
       <c r="C14" s="40">
@@ -3653,7 +3698,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="45" t="s">
         <v>28</v>
@@ -3679,7 +3724,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>38</v>
       </c>
@@ -3705,7 +3750,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
       <c r="B17" s="39" t="s">
         <v>34</v>
@@ -3729,7 +3774,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="39" t="s">
         <v>45</v>
@@ -3755,7 +3800,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="45" t="s">
         <v>28</v>
@@ -3769,7 +3814,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>40</v>
       </c>
@@ -3783,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="39" t="s">
         <v>34</v>
@@ -3795,7 +3840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40"/>
@@ -3803,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="45" t="s">
         <v>28</v>
@@ -3817,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>39</v>
       </c>
@@ -3831,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="50"/>
       <c r="B25" s="39" t="s">
         <v>34</v>
@@ -3843,7 +3888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="39" t="s">
         <v>44</v>
@@ -3855,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="45" t="s">
         <v>28</v>
@@ -3869,7 +3914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" s="47" t="s">
         <v>9</v>
@@ -3883,7 +3928,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="34" t="s">
         <v>26</v>
       </c>

--- a/doc/DeepPurple_Gaant.xlsx
+++ b/doc/DeepPurple_Gaant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Development\DeepPurple\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atki7\Documents\CS383\DeepPurple\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDECBA6-9122-44F3-A1D2-73873F13AEA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09A81A9-CED2-4DDC-9DE2-F97820C80398}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="2580" windowWidth="28035" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>hours</t>
   </si>
@@ -210,6 +211,21 @@
   </si>
   <si>
     <t>Final Testing</t>
+  </si>
+  <si>
+    <t>Collect Requirements</t>
+  </si>
+  <si>
+    <t>Layout Design</t>
+  </si>
+  <si>
+    <t>Generation Algorithm</t>
+  </si>
+  <si>
+    <t>Implementation/Programming</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -255,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +311,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,13 +450,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,19 +463,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -472,26 +491,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,6 +515,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,429 +858,421 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="K2" s="59" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="O2" s="59" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="O2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="23">
         <f>(G4+K4 +O4)</f>
         <v>700</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <f t="shared" ref="D4:D9" si="0">(H4+L4 +P4)</f>
         <v>600</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="25">
         <f>(C4-D4)</f>
         <v>100</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>(Gantt!$B10)*100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <f>(Gantt!$C10)*100</f>
         <v>0</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="19">
         <f>(G4-H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="26">
-        <v>0</v>
-      </c>
-      <c r="L4" s="27">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28">
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
         <f>(K4-L4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="23">
         <f>(SA!C5)*100</f>
         <v>700</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="24">
         <f>(SA!D5)*100</f>
         <v>600</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="25">
         <f>(O4-P4)</f>
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <f t="shared" ref="C5:C9" si="1">(G5+K5 +O5)</f>
         <v>700</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <f t="shared" ref="E5:E9" si="2">(C5-D5)</f>
         <v>-100</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <f>(Gantt!$B20)*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <f>(Gantt!$C20)*100</f>
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="19">
         <f t="shared" ref="I5:I9" si="3">(G5-H5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
         <f t="shared" ref="M5:M9" si="4">(K5-L5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="17">
         <f>(SA!C9)*100</f>
         <v>700</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="18">
         <f>(SA!D9)*100</f>
         <v>800</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="19">
         <f t="shared" ref="Q5:Q9" si="5">(O5-P5)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <f>(Gantt!$B28)*100</f>
         <v>0</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <f>(Gantt!$C28)*100</f>
         <v>0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="17">
         <f>(SA!C15)*100</f>
         <v>700</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="18">
         <f>(SA!D15)*100</f>
         <v>600</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="19">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="46">
         <f t="shared" ref="C7:C8" si="6">(G7+K7 +O7)</f>
         <v>200</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="47">
         <f t="shared" ref="D7:D8" si="7">(H7+L7 +P7)</f>
         <v>50</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="30">
         <f t="shared" ref="E7:E8" si="8">(C7-D7)</f>
         <v>150</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <f>(Gantt!$B35)*100</f>
         <v>0</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <f>(Gantt!$C35)*100</f>
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <f t="shared" ref="I7:I8" si="9">(G7-H7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
         <f t="shared" ref="M7:M8" si="10">(K7-L7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="46">
         <f>(SA!C18)*100</f>
         <v>200</v>
       </c>
-      <c r="P7" s="52">
+      <c r="P7" s="47">
         <f>(SA!D18)*100</f>
         <v>50</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="30">
         <f t="shared" ref="Q7:Q8" si="11">(O7-P7)</f>
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="46">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="47">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="30">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <f>(Gantt!$B35)*100</f>
         <v>0</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <f>(Gantt!$C35)*100</f>
         <v>0</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <v>0</v>
-      </c>
-      <c r="M8" s="22">
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="46">
         <f>(SA!C18)*100</f>
         <v>200</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="47">
         <f>(SA!D18)*100</f>
         <v>50</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="30">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="46">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="47">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="30">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <f>(Gantt!$B36)*100</f>
         <v>0</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <f>(Gantt!$C36)*100</f>
         <v>0</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="21">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="46">
         <f>(SA!C19)*100</f>
         <v>700</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="47">
         <f>(SA!D19)*100</f>
         <v>550</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="30">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="27">
         <f>SUM(C4:C9)</f>
         <v>3200</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="28">
         <f>SUM(D4:D9)</f>
         <v>2650</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="29">
         <f>SUM(E4:E9)</f>
         <v>550</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <f>SUM(G4:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <f>SUM(H4:H9)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="22">
         <f>SUM(I4:I9)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <f>SUM(K4:K9)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="21">
         <f>SUM(L4:L9)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="22">
         <f>SUM(M4:M9)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="27">
         <f>SUM(O4:O9)</f>
         <v>3200</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="28">
         <f>SUM(P4:P9)</f>
         <v>2650</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="29">
         <f>SUM(Q4:Q9)</f>
         <v>550</v>
       </c>
@@ -1285,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1323,7 @@
       <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="5"/>
       <c r="L1" t="s">
         <v>4</v>
       </c>
@@ -1416,29 +1424,6 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -1447,29 +1432,6 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -1478,29 +1440,6 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -1509,29 +1448,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -1540,29 +1457,6 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -1571,29 +1465,6 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -1602,29 +1473,6 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -1634,57 +1482,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1696,29 +1498,6 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -1727,29 +1506,6 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -1758,29 +1514,6 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -1789,29 +1522,6 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -1820,124 +1530,32 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B12:B19)</f>
         <v>0</v>
@@ -1946,308 +1564,97 @@
         <f>SUM(C12:C19)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
       <c r="B23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
       <c r="B24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
       <c r="B25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+        <v>6</v>
+      </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+        <v>3</v>
+      </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f>SUM(B22:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2257,245 +1664,61 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -2505,245 +1728,61 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2753,31 +1792,8 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2787,31 +1803,8 @@
       <c r="C47">
         <v>3</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2821,31 +1814,8 @@
       <c r="C48">
         <v>6</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2855,31 +1825,8 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2889,31 +1836,8 @@
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2923,31 +1847,8 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2958,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -2969,15 +1870,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <f>B53*100</f>
         <v>100</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <f>C53*100</f>
         <v>0</v>
       </c>
@@ -2998,301 +1899,298 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="48">
         <v>43489</v>
       </c>
-      <c r="D1" s="53">
+      <c r="D1" s="48">
         <v>43491</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>0.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$12,C$3:Z$3)</f>
         <v>4.5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <f>SUM(B4:B9)</f>
         <v>27</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>6</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3318,14 +2216,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E1">
@@ -3375,561 +2273,360 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="40">
-        <v>0</v>
-      </c>
-      <c r="D2" s="41">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="37">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="36">
         <f>SUM(C2:C4)</f>
         <v>7</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="39">
         <f>SUM(D2:D4)</f>
         <v>6</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="40">
-        <v>0</v>
-      </c>
-      <c r="D6" s="41">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="37">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="37">
         <v>2</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="36">
         <f>SUM(C6:C8)</f>
         <v>7</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="39">
         <f>SUM(D6:D8)</f>
         <v>8</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="40">
-        <v>0</v>
-      </c>
-      <c r="D10" s="41">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="37">
         <v>5</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="40">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="40">
-        <v>0</v>
-      </c>
-      <c r="D14" s="41">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="36">
         <f>SUM(C10:C14)</f>
         <v>7</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="39">
         <f>SUM(D10:D14)</f>
         <v>6</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="40">
-        <v>0</v>
-      </c>
-      <c r="D16" s="41">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="39" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="37">
         <v>5</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="39" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="37">
         <v>0.5</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="45" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="36">
         <f>SUM(C16:C18)</f>
         <v>7</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="39">
         <f>SUM(D16:D18)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="40">
-        <v>0</v>
-      </c>
-      <c r="D20" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="39" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="37">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="45" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36"/>
+      <c r="D22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="36">
         <f>SUM(C20:C22)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="39">
         <f>SUM(D20:D22)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="40">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="39" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="37">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="45" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="36">
         <f>SUM(C24:C26)</f>
         <v>7</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="39">
         <f>SUM(D24:D26)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47" t="s">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="44">
         <f>SUM(C5,C9,C15,C19,C23,C27)</f>
         <v>40</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="45">
         <f>SUM(D5,D9,D15,D19,D23,D27)</f>
         <v>36.5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
         <v>26</v>
       </c>
     </row>

--- a/doc/DeepPurple_Gaant.xlsx
+++ b/doc/DeepPurple_Gaant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atki7\Documents\CS383\DeepPurple\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software engineering\DeepPurple\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09A81A9-CED2-4DDC-9DE2-F97820C80398}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C50508-3025-4E71-AC6A-CC5BF92C15E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>hours</t>
   </si>
@@ -226,6 +225,15 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Designing Characters/ Collect Prefabs</t>
+  </si>
+  <si>
+    <t>Movement Behavior</t>
+  </si>
+  <si>
+    <t>Auxilary Functions</t>
   </si>
 </sst>
 </file>
@@ -506,6 +514,8 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,8 +525,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,50 +845,50 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="2.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="51" t="s">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="K2" s="51" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="K2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="O2" s="51" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="O2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-    </row>
-    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
+    </row>
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
@@ -918,7 +926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="26" t="s">
         <v>41</v>
       </c>
@@ -969,7 +977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
@@ -1020,7 +1028,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>40</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
@@ -1293,19 +1301,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1441,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1450,7 +1458,7 @@
       </c>
       <c r="J6" s="50"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1466,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B10">
         <f>SUM(B3:B9)</f>
         <v>0</v>
@@ -1483,12 +1491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1523,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0</v>
       </c>
@@ -1539,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B20">
         <f>SUM(B12:B19)</f>
         <v>0</v>
@@ -1565,12 +1573,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1580,10 +1588,10 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1593,11 +1601,11 @@
       <c r="C23">
         <v>8</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1607,12 +1615,12 @@
       <c r="C24">
         <v>9</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H24" s="52"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1622,14 +1630,14 @@
       <c r="C25">
         <v>12</v>
       </c>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1647,7 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1649,55 +1657,75 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E30" s="51"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
       <c r="B31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
       <c r="B32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
       <c r="B33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
       <c r="B34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0</v>
       </c>
@@ -1705,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0</v>
       </c>
@@ -1713,12 +1741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1729,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0</v>
       </c>
@@ -1737,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0</v>
       </c>
@@ -1745,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0</v>
       </c>
@@ -1753,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0</v>
       </c>
@@ -1761,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>0</v>
       </c>
@@ -1769,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>0</v>
       </c>
@@ -1777,12 +1805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1793,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1804,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1815,7 +1843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1826,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1837,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1848,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1859,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1870,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1885,6 +1913,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1896,9 +1925,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
@@ -1917,7 +1946,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1952,7 +1981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +2004,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -2002,7 +2031,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -2027,7 +2056,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -2054,7 +2083,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -2081,7 +2110,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -2108,7 +2137,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -2135,7 +2164,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -2184,12 +2213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
     </row>
   </sheetData>
@@ -2203,19 +2232,19 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="19" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="32"/>
       <c r="B1" s="33" t="s">
         <v>24</v>
@@ -2272,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>41</v>
       </c>
@@ -2286,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="36" t="s">
         <v>34</v>
@@ -2298,7 +2327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="38"/>
       <c r="B4" s="36" t="s">
         <v>46</v>
@@ -2313,7 +2342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="38"/>
       <c r="B5" s="36" t="s">
         <v>28</v>
@@ -2327,7 +2356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>37</v>
       </c>
@@ -2341,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="38"/>
       <c r="B7" s="36" t="s">
         <v>34</v>
@@ -2353,7 +2382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="36" t="s">
         <v>47</v>
@@ -2368,7 +2397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="38"/>
       <c r="B9" s="36" t="s">
         <v>28</v>
@@ -2382,7 +2411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>42</v>
       </c>
@@ -2396,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="38"/>
       <c r="B11" s="36" t="s">
         <v>34</v>
@@ -2408,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="38"/>
       <c r="B12" s="36" t="s">
         <v>43</v>
@@ -2423,7 +2452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="38"/>
       <c r="B13" s="40"/>
       <c r="C13">
@@ -2433,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="38"/>
       <c r="B14" s="40"/>
       <c r="C14">
@@ -2443,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
         <v>28</v>
@@ -2457,7 +2486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>38</v>
       </c>
@@ -2471,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="38"/>
       <c r="B17" s="36" t="s">
         <v>34</v>
@@ -2483,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
       <c r="B18" s="36" t="s">
         <v>45</v>
@@ -2498,7 +2527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
         <v>28</v>
@@ -2512,7 +2541,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>40</v>
       </c>
@@ -2526,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="38"/>
       <c r="B21" s="36" t="s">
         <v>34</v>
@@ -2538,14 +2567,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="38"/>
       <c r="B22" s="36"/>
       <c r="D22" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
         <v>28</v>
@@ -2559,7 +2588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -2573,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="38"/>
       <c r="B25" s="36" t="s">
         <v>34</v>
@@ -2585,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="36" t="s">
         <v>44</v>
@@ -2597,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="41" t="s">
         <v>28</v>
@@ -2611,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
         <v>9</v>
@@ -2625,7 +2654,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29" s="31" t="s">
         <v>26</v>
       </c>

--- a/doc/DeepPurple_Gaant.xlsx
+++ b/doc/DeepPurple_Gaant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software engineering\DeepPurple\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\GitHub\DeepPurple\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C50508-3025-4E71-AC6A-CC5BF92C15E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E4A92-1B2B-4BAF-BE96-00CF55C3D715}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="23200" windowHeight="12810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t>hours</t>
   </si>
@@ -234,6 +235,15 @@
   </si>
   <si>
     <t>Auxilary Functions</t>
+  </si>
+  <si>
+    <t>Design system</t>
+  </si>
+  <si>
+    <t>Program system</t>
+  </si>
+  <si>
+    <t>Changes after testing</t>
   </si>
 </sst>
 </file>
@@ -458,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -515,7 +525,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,27 +875,27 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="K2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="O2" s="53" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="O2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="11" t="s">
@@ -1301,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1589,7 +1598,6 @@
         <v>4</v>
       </c>
       <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -1615,7 +1623,6 @@
       <c r="C24">
         <v>9</v>
       </c>
-      <c r="H24" s="52"/>
       <c r="I24" s="51"/>
       <c r="J24" s="51"/>
       <c r="K24" s="51"/>
@@ -1699,7 +1706,7 @@
       </c>
       <c r="H32" s="51"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1712,7 +1719,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1725,7 +1732,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0</v>
       </c>
@@ -1741,76 +1748,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E38" s="51"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
       <c r="B39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
       <c r="B40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
       <c r="B41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
       <c r="B42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1821,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1832,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>

--- a/doc/DeepPurple_Gaant.xlsx
+++ b/doc/DeepPurple_Gaant.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Development\DeepPurple\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7738D0-B606-418C-879C-35E2DE6F55D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Management Summary" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Gantt" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Meetings" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="SA" sheetId="4" r:id="rId6"/>
+    <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Gantt" sheetId="2" r:id="rId2"/>
+    <sheet name="Meetings" sheetId="3" r:id="rId3"/>
+    <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -232,53 +248,58 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans Symbols"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -310,9 +331,27 @@
         <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -326,29 +365,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -356,25 +403,31 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -383,8 +436,10 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -394,6 +449,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -402,6 +458,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -412,6 +469,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -420,6 +478,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -430,6 +489,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -440,58 +500,18 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -500,6 +520,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -510,6 +531,76 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -522,6 +613,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -532,6 +624,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -544,569 +637,855 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="66">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="16" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="2" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="13" fillId="2" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="2" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="2" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="27" fillId="2" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.86"/>
-    <col customWidth="1" min="3" max="3" width="14.29"/>
-    <col customWidth="1" min="4" max="4" width="13.86"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="3.43"/>
-    <col customWidth="1" min="7" max="7" width="15.29"/>
-    <col customWidth="1" min="8" max="8" width="12.29"/>
-    <col customWidth="1" min="9" max="9" width="14.43"/>
-    <col customWidth="1" min="10" max="10" width="2.86"/>
-    <col customWidth="1" min="11" max="11" width="13.86"/>
-    <col customWidth="1" min="12" max="12" width="14.0"/>
-    <col customWidth="1" min="13" max="13" width="14.14"/>
-    <col customWidth="1" min="14" max="14" width="5.43"/>
-    <col customWidth="1" min="15" max="15" width="12.29"/>
-    <col customWidth="1" min="16" max="16" width="14.71"/>
-    <col customWidth="1" min="17" max="17" width="11.29"/>
-    <col customWidth="1" min="18" max="26" width="8.86"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="2:17">
+      <c r="C2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="K2" s="4" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="K2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="O2" s="4" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="O2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="C3" s="13" t="s">
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:17">
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="26">
-        <f t="shared" ref="C4:D4" si="1">(G4+K4 +O4)</f>
+      <c r="C4" s="19">
+        <f t="shared" ref="C4:D4" si="0">(G4+K4 +O4)</f>
         <v>700</v>
       </c>
-      <c r="D4" s="28">
-        <f t="shared" si="1"/>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E4" s="29">
-        <f t="shared" ref="E4:E9" si="3">(C4-D4)</f>
+      <c r="E4" s="22">
+        <f t="shared" ref="E4:E9" si="1">(C4-D4)</f>
         <v>100</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="23">
         <f>(Gantt!$B11)*100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="25">
         <f>(Gantt!$C11)*100</f>
         <v>0</v>
       </c>
-      <c r="I4" s="33">
-        <f t="shared" ref="I4:I9" si="4">(G4-H4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="29">
-        <f t="shared" ref="M4:M9" si="5">(K4-L4)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="26">
+      <c r="I4" s="26">
+        <f t="shared" ref="I4:I9" si="2">(G4-H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <f t="shared" ref="M4:M9" si="3">(K4-L4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
         <f>(SA!C5)*100</f>
         <v>700</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="21">
         <f>(SA!D5)*100</f>
         <v>600</v>
       </c>
-      <c r="Q4" s="29">
-        <f t="shared" ref="Q4:Q9" si="6">(O4-P4)</f>
+      <c r="Q4" s="22">
+        <f t="shared" ref="Q4:Q9" si="4">(O4-P4)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:17">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="30">
-        <f t="shared" ref="C5:D5" si="2">(G5+K5 +O5)</f>
+      <c r="C5" s="23">
+        <f t="shared" ref="C5:D5" si="5">(G5+K5 +O5)</f>
         <v>700</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="25">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="G5" s="23">
+        <f>(Gantt!$B21)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <f>(Gantt!$C21)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
         <f t="shared" si="2"/>
-        <v>800</v>
-      </c>
-      <c r="E5" s="33">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
         <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-      <c r="G5" s="30">
-        <f>(Gantt!$B21)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="32">
-        <f>(Gantt!$C21)*100</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="30">
+        <v>0</v>
+      </c>
+      <c r="O5" s="23">
         <f>(SA!C9)*100</f>
         <v>700</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="25">
         <f>(SA!D9)*100</f>
         <v>800</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="26">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" ref="C6:D6" si="6">(G6+K6 +O6)</f>
+        <v>700</v>
+      </c>
+      <c r="D6" s="25">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="30">
-        <f t="shared" ref="C6:D6" si="7">(G6+K6 +O6)</f>
-        <v>700</v>
-      </c>
-      <c r="D6" s="32">
-        <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="26">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G6" s="23">
+        <f>(Gantt!$B29)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <f>(Gantt!$C29)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="G6" s="30">
-        <f>(Gantt!$B29)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
-        <f>(Gantt!$C29)*100</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23">
         <f>(SA!C15)*100</f>
         <v>700</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="25">
         <f>(SA!D15)*100</f>
         <v>600</v>
       </c>
-      <c r="Q6" s="33">
-        <f t="shared" si="6"/>
+      <c r="Q6" s="26">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:17">
+      <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="37">
-        <f t="shared" ref="C7:D7" si="8">(G7+K7 +O7)</f>
+      <c r="C7" s="30">
+        <f t="shared" ref="C7:D7" si="7">(G7+K7 +O7)</f>
         <v>200</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="31">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="32">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G7" s="23">
+        <f>(Gantt!$B36)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <f>(Gantt!$C36)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="30">
+        <f>(SA!C18)*100</f>
+        <v>200</v>
+      </c>
+      <c r="P7" s="31">
+        <f>(SA!D18)*100</f>
+        <v>50</v>
+      </c>
+      <c r="Q7" s="32">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="30">
+        <f t="shared" ref="C8:D8" si="8">(G8+K8 +O8)</f>
+        <v>200</v>
+      </c>
+      <c r="D8" s="31">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E8" s="32">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G8" s="23">
+        <f>(Gantt!$B36)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <f>(Gantt!$C36)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="G7" s="30">
-        <f>(Gantt!$B36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="32">
-        <f>(Gantt!$C36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="37">
+        <v>0</v>
+      </c>
+      <c r="O8" s="30">
         <f>(SA!C18)*100</f>
         <v>200</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P8" s="31">
         <f>(SA!D18)*100</f>
         <v>50</v>
       </c>
-      <c r="Q7" s="39">
-        <f t="shared" si="6"/>
+      <c r="Q8" s="32">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="37">
-        <f t="shared" ref="C8:D8" si="9">(G8+K8 +O8)</f>
-        <v>200</v>
-      </c>
-      <c r="D8" s="38">
+    <row r="9" spans="2:17">
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="30">
+        <f t="shared" ref="C9:D9" si="9">(G9+K9 +O9)</f>
+        <v>700</v>
+      </c>
+      <c r="D9" s="31">
         <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="E8" s="39">
+        <v>550</v>
+      </c>
+      <c r="E9" s="32">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G9" s="23">
+        <f>(Gantt!$B37)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <f>(Gantt!$C37)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="30">
+        <f>(SA!C19)*100</f>
+        <v>700</v>
+      </c>
+      <c r="P9" s="31">
+        <f>(SA!D19)*100</f>
+        <v>550</v>
+      </c>
+      <c r="Q9" s="32">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="G8" s="30">
-        <f>(Gantt!$B36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="32">
-        <f>(Gantt!$C36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="37">
-        <f>(SA!C18)*100</f>
-        <v>200</v>
-      </c>
-      <c r="P8" s="38">
-        <f>(SA!D18)*100</f>
-        <v>50</v>
-      </c>
-      <c r="Q8" s="39">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="37">
-        <f t="shared" ref="C9:D9" si="10">(G9+K9 +O9)</f>
-        <v>700</v>
-      </c>
-      <c r="D9" s="38">
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="45">
+        <f t="shared" ref="C10:E10" si="10">SUM(C4:C9)</f>
+        <v>3200</v>
+      </c>
+      <c r="D10" s="46">
+        <f t="shared" si="10"/>
+        <v>2650</v>
+      </c>
+      <c r="E10" s="47">
         <f t="shared" si="10"/>
         <v>550</v>
       </c>
-      <c r="E9" s="39">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="G9" s="30">
-        <f>(Gantt!$B37)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="32">
-        <f>(Gantt!$C37)*100</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="M9" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="37">
-        <f>(SA!C19)*100</f>
-        <v>700</v>
-      </c>
-      <c r="P9" s="38">
-        <f>(SA!D19)*100</f>
-        <v>550</v>
-      </c>
-      <c r="Q9" s="39">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="52">
-        <f t="shared" ref="C10:E10" si="11">SUM(C4:C9)</f>
+      <c r="G10" s="49">
+        <f t="shared" ref="G10:I10" si="11">SUM(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="51">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="49">
+        <f t="shared" ref="K10:M10" si="12">SUM(K4:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="51">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="45">
+        <f t="shared" ref="O10:Q10" si="13">SUM(O4:O9)</f>
         <v>3200</v>
       </c>
-      <c r="D10" s="53">
-        <f t="shared" si="11"/>
+      <c r="P10" s="46">
+        <f t="shared" si="13"/>
         <v>2650</v>
       </c>
-      <c r="E10" s="54">
-        <f t="shared" si="11"/>
-        <v>550</v>
-      </c>
-      <c r="G10" s="56">
-        <f t="shared" ref="G10:I10" si="12">SUM(G4:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="59">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="56">
-        <f t="shared" ref="K10:M10" si="13">SUM(K4:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="58">
+      <c r="Q10" s="47">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="59">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="52">
-        <f t="shared" ref="O10:Q10" si="14">SUM(O4:O9)</f>
-        <v>3200</v>
-      </c>
-      <c r="P10" s="53">
-        <f t="shared" si="14"/>
-        <v>2650</v>
-      </c>
-      <c r="Q10" s="54">
-        <f t="shared" si="14"/>
         <v>550</v>
       </c>
     </row>
@@ -2097,1702 +2476,1702 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:DB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.0"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="16.29"/>
-    <col customWidth="1" min="4" max="106" width="2.71"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="106" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:106" ht="31.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="16" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="14"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" ht="36.0" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:106" ht="36" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="X2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AB2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AD2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AF2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AH2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AJ2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AL2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AN2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AP2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AR2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AT2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AV2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AX2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AZ2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="BB2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="BD2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="BF2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="BH2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="BJ2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="BL2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="BN2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="BP2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="BR2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="BT2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="BV2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="BX2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="BZ2">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="CB2">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="CD2">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="CF2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="CH2">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="CJ2">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="CL2">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="CN2">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="CP2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="CR2">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="CT2">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="CV2">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="CX2">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="CZ2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="DB2">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:106">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:106">
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:106">
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106">
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:106">
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:106">
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:106">
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:106">
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:106">
+      <c r="A12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="31"/>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="31"/>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
-      <c r="BK12" s="31"/>
-      <c r="BL12" s="31"/>
-      <c r="BM12" s="31"/>
-      <c r="BN12" s="31"/>
-      <c r="BO12" s="31"/>
-      <c r="BP12" s="31"/>
-      <c r="BQ12" s="31"/>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="31"/>
-      <c r="BT12" s="31"/>
-      <c r="BU12" s="31"/>
-      <c r="BV12" s="31"/>
-      <c r="BW12" s="31"/>
-      <c r="BX12" s="31"/>
-      <c r="BY12" s="31"/>
-      <c r="BZ12" s="31"/>
-      <c r="CA12" s="31"/>
-      <c r="CB12" s="31"/>
-      <c r="CC12" s="31"/>
-      <c r="CD12" s="31"/>
-      <c r="CE12" s="31"/>
-      <c r="CF12" s="31"/>
-      <c r="CG12" s="31"/>
-      <c r="CH12" s="31"/>
-      <c r="CI12" s="31"/>
-      <c r="CJ12" s="31"/>
-      <c r="CK12" s="31"/>
-      <c r="CL12" s="31"/>
-      <c r="CM12" s="31"/>
-      <c r="CN12" s="31"/>
-      <c r="CO12" s="31"/>
-      <c r="CP12" s="31"/>
-      <c r="CQ12" s="31"/>
-      <c r="CR12" s="31"/>
-      <c r="CS12" s="31"/>
-      <c r="CT12" s="31"/>
-      <c r="CU12" s="31"/>
-      <c r="CV12" s="31"/>
-      <c r="CW12" s="31"/>
-      <c r="CX12" s="31"/>
-      <c r="CY12" s="31"/>
-      <c r="CZ12" s="31"/>
-      <c r="DA12" s="31"/>
-      <c r="DB12" s="31"/>
-    </row>
-    <row r="13">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="24"/>
+      <c r="AV12" s="24"/>
+      <c r="AW12" s="24"/>
+      <c r="AX12" s="24"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="24"/>
+      <c r="BA12" s="24"/>
+      <c r="BB12" s="24"/>
+      <c r="BC12" s="24"/>
+      <c r="BD12" s="24"/>
+      <c r="BE12" s="24"/>
+      <c r="BF12" s="24"/>
+      <c r="BG12" s="24"/>
+      <c r="BH12" s="24"/>
+      <c r="BI12" s="24"/>
+      <c r="BJ12" s="24"/>
+      <c r="BK12" s="24"/>
+      <c r="BL12" s="24"/>
+      <c r="BM12" s="24"/>
+      <c r="BN12" s="24"/>
+      <c r="BO12" s="24"/>
+      <c r="BP12" s="24"/>
+      <c r="BQ12" s="24"/>
+      <c r="BR12" s="24"/>
+      <c r="BS12" s="24"/>
+      <c r="BT12" s="24"/>
+      <c r="BU12" s="24"/>
+      <c r="BV12" s="24"/>
+      <c r="BW12" s="24"/>
+      <c r="BX12" s="24"/>
+      <c r="BY12" s="24"/>
+      <c r="BZ12" s="24"/>
+      <c r="CA12" s="24"/>
+      <c r="CB12" s="24"/>
+      <c r="CC12" s="24"/>
+      <c r="CD12" s="24"/>
+      <c r="CE12" s="24"/>
+      <c r="CF12" s="24"/>
+      <c r="CG12" s="24"/>
+      <c r="CH12" s="24"/>
+      <c r="CI12" s="24"/>
+      <c r="CJ12" s="24"/>
+      <c r="CK12" s="24"/>
+      <c r="CL12" s="24"/>
+      <c r="CM12" s="24"/>
+      <c r="CN12" s="24"/>
+      <c r="CO12" s="24"/>
+      <c r="CP12" s="24"/>
+      <c r="CQ12" s="24"/>
+      <c r="CR12" s="24"/>
+      <c r="CS12" s="24"/>
+      <c r="CT12" s="24"/>
+      <c r="CU12" s="24"/>
+      <c r="CV12" s="24"/>
+      <c r="CW12" s="24"/>
+      <c r="CX12" s="24"/>
+      <c r="CY12" s="24"/>
+      <c r="CZ12" s="24"/>
+      <c r="DA12" s="24"/>
+      <c r="DB12" s="24"/>
+    </row>
+    <row r="13" spans="1:106">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106">
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:106">
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:106">
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:106">
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:106">
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:106">
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:106">
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:106" ht="15.75" customHeight="1">
       <c r="B21">
-        <f t="shared" ref="B21:C21" si="1">SUM(B13:B20)</f>
+        <f t="shared" ref="B21:C21" si="0">SUM(B13:B20)</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:106" ht="15.75" customHeight="1">
+      <c r="A22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="31"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="31"/>
-      <c r="BJ22" s="31"/>
-      <c r="BK22" s="31"/>
-      <c r="BL22" s="31"/>
-      <c r="BM22" s="31"/>
-      <c r="BN22" s="31"/>
-      <c r="BO22" s="31"/>
-      <c r="BP22" s="31"/>
-      <c r="BQ22" s="31"/>
-      <c r="BR22" s="31"/>
-      <c r="BS22" s="31"/>
-      <c r="BT22" s="31"/>
-      <c r="BU22" s="31"/>
-      <c r="BV22" s="31"/>
-      <c r="BW22" s="31"/>
-      <c r="BX22" s="31"/>
-      <c r="BY22" s="31"/>
-      <c r="BZ22" s="31"/>
-      <c r="CA22" s="31"/>
-      <c r="CB22" s="31"/>
-      <c r="CC22" s="31"/>
-      <c r="CD22" s="31"/>
-      <c r="CE22" s="31"/>
-      <c r="CF22" s="31"/>
-      <c r="CG22" s="31"/>
-      <c r="CH22" s="31"/>
-      <c r="CI22" s="31"/>
-      <c r="CJ22" s="31"/>
-      <c r="CK22" s="31"/>
-      <c r="CL22" s="31"/>
-      <c r="CM22" s="31"/>
-      <c r="CN22" s="31"/>
-      <c r="CO22" s="31"/>
-      <c r="CP22" s="31"/>
-      <c r="CQ22" s="31"/>
-      <c r="CR22" s="31"/>
-      <c r="CS22" s="31"/>
-      <c r="CT22" s="31"/>
-      <c r="CU22" s="31"/>
-      <c r="CV22" s="31"/>
-      <c r="CW22" s="31"/>
-      <c r="CX22" s="31"/>
-      <c r="CY22" s="31"/>
-      <c r="CZ22" s="31"/>
-      <c r="DA22" s="31"/>
-      <c r="DB22" s="31"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="24"/>
+      <c r="BB22" s="24"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="24"/>
+      <c r="BF22" s="24"/>
+      <c r="BG22" s="24"/>
+      <c r="BH22" s="24"/>
+      <c r="BI22" s="24"/>
+      <c r="BJ22" s="24"/>
+      <c r="BK22" s="24"/>
+      <c r="BL22" s="24"/>
+      <c r="BM22" s="24"/>
+      <c r="BN22" s="24"/>
+      <c r="BO22" s="24"/>
+      <c r="BP22" s="24"/>
+      <c r="BQ22" s="24"/>
+      <c r="BR22" s="24"/>
+      <c r="BS22" s="24"/>
+      <c r="BT22" s="24"/>
+      <c r="BU22" s="24"/>
+      <c r="BV22" s="24"/>
+      <c r="BW22" s="24"/>
+      <c r="BX22" s="24"/>
+      <c r="BY22" s="24"/>
+      <c r="BZ22" s="24"/>
+      <c r="CA22" s="24"/>
+      <c r="CB22" s="24"/>
+      <c r="CC22" s="24"/>
+      <c r="CD22" s="24"/>
+      <c r="CE22" s="24"/>
+      <c r="CF22" s="24"/>
+      <c r="CG22" s="24"/>
+      <c r="CH22" s="24"/>
+      <c r="CI22" s="24"/>
+      <c r="CJ22" s="24"/>
+      <c r="CK22" s="24"/>
+      <c r="CL22" s="24"/>
+      <c r="CM22" s="24"/>
+      <c r="CN22" s="24"/>
+      <c r="CO22" s="24"/>
+      <c r="CP22" s="24"/>
+      <c r="CQ22" s="24"/>
+      <c r="CR22" s="24"/>
+      <c r="CS22" s="24"/>
+      <c r="CT22" s="24"/>
+      <c r="CU22" s="24"/>
+      <c r="CV22" s="24"/>
+      <c r="CW22" s="24"/>
+      <c r="CX22" s="24"/>
+      <c r="CY22" s="24"/>
+      <c r="CZ22" s="24"/>
+      <c r="DA22" s="24"/>
+      <c r="DB22" s="24"/>
+    </row>
+    <row r="23" spans="1:106" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>4.0</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:106" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>8.0</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+    </row>
+    <row r="25" spans="1:106" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>9.0</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+    </row>
+    <row r="26" spans="1:106" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>12.0</v>
-      </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="AU26" s="34"/>
-      <c r="AV26" s="34"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="34"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="34"/>
-      <c r="BA26" s="34"/>
-      <c r="BB26" s="34"/>
-      <c r="BC26" s="34"/>
-      <c r="BD26" s="34"/>
-      <c r="BE26" s="34"/>
-      <c r="BF26" s="34"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="34"/>
-      <c r="BI26" s="34"/>
-      <c r="BJ26" s="34"/>
-      <c r="BK26" s="34"/>
-      <c r="BL26" s="34"/>
-      <c r="BM26" s="34"/>
-      <c r="BN26" s="34"/>
-      <c r="BO26" s="34"/>
-      <c r="BP26" s="34"/>
-      <c r="BQ26" s="34"/>
-      <c r="BR26" s="34"/>
-      <c r="BS26" s="35"/>
-      <c r="BT26" s="35"/>
-      <c r="BU26" s="35"/>
-      <c r="BV26" s="35"/>
-      <c r="BW26" s="35"/>
-      <c r="BX26" s="35"/>
-      <c r="BY26" s="36"/>
-      <c r="BZ26" s="36"/>
-      <c r="CA26" s="36"/>
-      <c r="CB26" s="36"/>
-      <c r="CC26" s="36"/>
-      <c r="CD26" s="36"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="AU26" s="27"/>
+      <c r="AV26" s="27"/>
+      <c r="AW26" s="27"/>
+      <c r="AX26" s="27"/>
+      <c r="AY26" s="27"/>
+      <c r="AZ26" s="27"/>
+      <c r="BA26" s="27"/>
+      <c r="BB26" s="27"/>
+      <c r="BC26" s="27"/>
+      <c r="BD26" s="27"/>
+      <c r="BE26" s="27"/>
+      <c r="BF26" s="27"/>
+      <c r="BG26" s="27"/>
+      <c r="BH26" s="27"/>
+      <c r="BI26" s="27"/>
+      <c r="BJ26" s="27"/>
+      <c r="BK26" s="27"/>
+      <c r="BL26" s="27"/>
+      <c r="BM26" s="27"/>
+      <c r="BN26" s="27"/>
+      <c r="BO26" s="27"/>
+      <c r="BP26" s="27"/>
+      <c r="BQ26" s="27"/>
+      <c r="BR26" s="27"/>
+      <c r="BS26" s="28"/>
+      <c r="BT26" s="28"/>
+      <c r="BU26" s="28"/>
+      <c r="BV26" s="28"/>
+      <c r="BW26" s="28"/>
+      <c r="BX26" s="28"/>
+      <c r="BY26" s="29"/>
+      <c r="BZ26" s="29"/>
+      <c r="CA26" s="29"/>
+      <c r="CB26" s="29"/>
+      <c r="CC26" s="29"/>
+      <c r="CD26" s="29"/>
+    </row>
+    <row r="27" spans="1:106" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>0.0</v>
-      </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="CE27" s="36"/>
-      <c r="CF27" s="36"/>
-      <c r="CG27" s="36"/>
-      <c r="CH27" s="36"/>
-      <c r="CI27" s="36"/>
-      <c r="CJ27" s="36"/>
-      <c r="CK27" s="36"/>
-      <c r="CL27" s="36"/>
-      <c r="CM27" s="36"/>
-      <c r="CN27" s="36"/>
-      <c r="CO27" s="36"/>
-      <c r="CP27" s="36"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="CE27" s="29"/>
+      <c r="CF27" s="29"/>
+      <c r="CG27" s="29"/>
+      <c r="CH27" s="29"/>
+      <c r="CI27" s="29"/>
+      <c r="CJ27" s="29"/>
+      <c r="CK27" s="29"/>
+      <c r="CL27" s="29"/>
+      <c r="CM27" s="29"/>
+      <c r="CN27" s="29"/>
+      <c r="CO27" s="29"/>
+      <c r="CP27" s="29"/>
+    </row>
+    <row r="28" spans="1:106" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>0.0</v>
-      </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="CQ28" s="36"/>
-      <c r="CR28" s="36"/>
-      <c r="CS28" s="36"/>
-      <c r="CT28" s="36"/>
-      <c r="CU28" s="36"/>
-      <c r="CV28" s="36"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="CQ28" s="29"/>
+      <c r="CR28" s="29"/>
+      <c r="CS28" s="29"/>
+      <c r="CT28" s="29"/>
+      <c r="CU28" s="29"/>
+      <c r="CV28" s="29"/>
+    </row>
+    <row r="29" spans="1:106" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:106" ht="15.75" customHeight="1">
+      <c r="A30" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="31"/>
-      <c r="AY30" s="31"/>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="31"/>
-      <c r="BC30" s="31"/>
-      <c r="BD30" s="31"/>
-      <c r="BE30" s="31"/>
-      <c r="BF30" s="31"/>
-      <c r="BG30" s="31"/>
-      <c r="BH30" s="31"/>
-      <c r="BI30" s="31"/>
-      <c r="BJ30" s="31"/>
-      <c r="BK30" s="31"/>
-      <c r="BL30" s="31"/>
-      <c r="BM30" s="31"/>
-      <c r="BN30" s="31"/>
-      <c r="BO30" s="31"/>
-      <c r="BP30" s="31"/>
-      <c r="BQ30" s="31"/>
-      <c r="BR30" s="31"/>
-      <c r="BS30" s="31"/>
-      <c r="BT30" s="31"/>
-      <c r="BU30" s="31"/>
-      <c r="BV30" s="31"/>
-      <c r="BW30" s="31"/>
-      <c r="BX30" s="31"/>
-      <c r="BY30" s="31"/>
-      <c r="BZ30" s="31"/>
-      <c r="CA30" s="31"/>
-      <c r="CB30" s="31"/>
-      <c r="CC30" s="31"/>
-      <c r="CD30" s="31"/>
-      <c r="CE30" s="31"/>
-      <c r="CF30" s="31"/>
-      <c r="CG30" s="31"/>
-      <c r="CH30" s="31"/>
-      <c r="CI30" s="31"/>
-      <c r="CJ30" s="31"/>
-      <c r="CK30" s="31"/>
-      <c r="CL30" s="31"/>
-      <c r="CM30" s="31"/>
-      <c r="CN30" s="31"/>
-      <c r="CO30" s="31"/>
-      <c r="CP30" s="31"/>
-      <c r="CQ30" s="31"/>
-      <c r="CR30" s="31"/>
-      <c r="CS30" s="31"/>
-      <c r="CT30" s="31"/>
-      <c r="CU30" s="31"/>
-      <c r="CV30" s="31"/>
-      <c r="CW30" s="31"/>
-      <c r="CX30" s="31"/>
-      <c r="CY30" s="31"/>
-      <c r="CZ30" s="31"/>
-      <c r="DA30" s="31"/>
-      <c r="DB30" s="31"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="24"/>
+      <c r="AR30" s="24"/>
+      <c r="AS30" s="24"/>
+      <c r="AT30" s="24"/>
+      <c r="AU30" s="24"/>
+      <c r="AV30" s="24"/>
+      <c r="AW30" s="24"/>
+      <c r="AX30" s="24"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="24"/>
+      <c r="BA30" s="24"/>
+      <c r="BB30" s="24"/>
+      <c r="BC30" s="24"/>
+      <c r="BD30" s="24"/>
+      <c r="BE30" s="24"/>
+      <c r="BF30" s="24"/>
+      <c r="BG30" s="24"/>
+      <c r="BH30" s="24"/>
+      <c r="BI30" s="24"/>
+      <c r="BJ30" s="24"/>
+      <c r="BK30" s="24"/>
+      <c r="BL30" s="24"/>
+      <c r="BM30" s="24"/>
+      <c r="BN30" s="24"/>
+      <c r="BO30" s="24"/>
+      <c r="BP30" s="24"/>
+      <c r="BQ30" s="24"/>
+      <c r="BR30" s="24"/>
+      <c r="BS30" s="24"/>
+      <c r="BT30" s="24"/>
+      <c r="BU30" s="24"/>
+      <c r="BV30" s="24"/>
+      <c r="BW30" s="24"/>
+      <c r="BX30" s="24"/>
+      <c r="BY30" s="24"/>
+      <c r="BZ30" s="24"/>
+      <c r="CA30" s="24"/>
+      <c r="CB30" s="24"/>
+      <c r="CC30" s="24"/>
+      <c r="CD30" s="24"/>
+      <c r="CE30" s="24"/>
+      <c r="CF30" s="24"/>
+      <c r="CG30" s="24"/>
+      <c r="CH30" s="24"/>
+      <c r="CI30" s="24"/>
+      <c r="CJ30" s="24"/>
+      <c r="CK30" s="24"/>
+      <c r="CL30" s="24"/>
+      <c r="CM30" s="24"/>
+      <c r="CN30" s="24"/>
+      <c r="CO30" s="24"/>
+      <c r="CP30" s="24"/>
+      <c r="CQ30" s="24"/>
+      <c r="CR30" s="24"/>
+      <c r="CS30" s="24"/>
+      <c r="CT30" s="24"/>
+      <c r="CU30" s="24"/>
+      <c r="CV30" s="24"/>
+      <c r="CW30" s="24"/>
+      <c r="CX30" s="24"/>
+      <c r="CY30" s="24"/>
+      <c r="CZ30" s="24"/>
+      <c r="DA30" s="24"/>
+      <c r="DB30" s="24"/>
+    </row>
+    <row r="31" spans="1:106" ht="15.75" customHeight="1">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>4.0</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="1:106" ht="15.75" customHeight="1">
       <c r="A32" t="s">
         <v>42</v>
       </c>
       <c r="B32">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>5.0</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+    </row>
+    <row r="33" spans="1:106" ht="15.75" customHeight="1">
       <c r="A33" t="s">
         <v>43</v>
       </c>
       <c r="B33">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>3.0</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+    </row>
+    <row r="34" spans="1:106" ht="15.75" customHeight="1">
       <c r="A34" t="s">
         <v>44</v>
       </c>
       <c r="B34">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
+    </row>
+    <row r="35" spans="1:106" ht="15.75" customHeight="1">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>0.0</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="36"/>
-      <c r="AU35" s="36"/>
-      <c r="AV35" s="36"/>
-      <c r="AW35" s="36"/>
-      <c r="AX35" s="36"/>
-      <c r="AY35" s="36"/>
-      <c r="AZ35" s="36"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
+      <c r="AS35" s="29"/>
+      <c r="AT35" s="29"/>
+      <c r="AU35" s="29"/>
+      <c r="AV35" s="29"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+    </row>
+    <row r="36" spans="1:106" ht="15.75" customHeight="1">
       <c r="B36">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.0</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:106" ht="15.75" customHeight="1">
       <c r="B37">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:106" ht="15.75" customHeight="1">
+      <c r="A38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="31"/>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
-      <c r="BH38" s="31"/>
-      <c r="BI38" s="31"/>
-      <c r="BJ38" s="31"/>
-      <c r="BK38" s="31"/>
-      <c r="BL38" s="31"/>
-      <c r="BM38" s="31"/>
-      <c r="BN38" s="31"/>
-      <c r="BO38" s="31"/>
-      <c r="BP38" s="31"/>
-      <c r="BQ38" s="31"/>
-      <c r="BR38" s="31"/>
-      <c r="BS38" s="31"/>
-      <c r="BT38" s="31"/>
-      <c r="BU38" s="31"/>
-      <c r="BV38" s="31"/>
-      <c r="BW38" s="31"/>
-      <c r="BX38" s="31"/>
-      <c r="BY38" s="31"/>
-      <c r="BZ38" s="31"/>
-      <c r="CA38" s="31"/>
-      <c r="CB38" s="31"/>
-      <c r="CC38" s="31"/>
-      <c r="CD38" s="31"/>
-      <c r="CE38" s="31"/>
-      <c r="CF38" s="31"/>
-      <c r="CG38" s="31"/>
-      <c r="CH38" s="31"/>
-      <c r="CI38" s="31"/>
-      <c r="CJ38" s="31"/>
-      <c r="CK38" s="31"/>
-      <c r="CL38" s="31"/>
-      <c r="CM38" s="31"/>
-      <c r="CN38" s="31"/>
-      <c r="CO38" s="31"/>
-      <c r="CP38" s="31"/>
-      <c r="CQ38" s="31"/>
-      <c r="CR38" s="31"/>
-      <c r="CS38" s="31"/>
-      <c r="CT38" s="31"/>
-      <c r="CU38" s="31"/>
-      <c r="CV38" s="31"/>
-      <c r="CW38" s="31"/>
-      <c r="CX38" s="31"/>
-      <c r="CY38" s="31"/>
-      <c r="CZ38" s="31"/>
-      <c r="DA38" s="31"/>
-      <c r="DB38" s="31"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="24"/>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="24"/>
+      <c r="AK38" s="24"/>
+      <c r="AL38" s="24"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="24"/>
+      <c r="AP38" s="24"/>
+      <c r="AQ38" s="24"/>
+      <c r="AR38" s="24"/>
+      <c r="AS38" s="24"/>
+      <c r="AT38" s="24"/>
+      <c r="AU38" s="24"/>
+      <c r="AV38" s="24"/>
+      <c r="AW38" s="24"/>
+      <c r="AX38" s="24"/>
+      <c r="AY38" s="24"/>
+      <c r="AZ38" s="24"/>
+      <c r="BA38" s="24"/>
+      <c r="BB38" s="24"/>
+      <c r="BC38" s="24"/>
+      <c r="BD38" s="24"/>
+      <c r="BE38" s="24"/>
+      <c r="BF38" s="24"/>
+      <c r="BG38" s="24"/>
+      <c r="BH38" s="24"/>
+      <c r="BI38" s="24"/>
+      <c r="BJ38" s="24"/>
+      <c r="BK38" s="24"/>
+      <c r="BL38" s="24"/>
+      <c r="BM38" s="24"/>
+      <c r="BN38" s="24"/>
+      <c r="BO38" s="24"/>
+      <c r="BP38" s="24"/>
+      <c r="BQ38" s="24"/>
+      <c r="BR38" s="24"/>
+      <c r="BS38" s="24"/>
+      <c r="BT38" s="24"/>
+      <c r="BU38" s="24"/>
+      <c r="BV38" s="24"/>
+      <c r="BW38" s="24"/>
+      <c r="BX38" s="24"/>
+      <c r="BY38" s="24"/>
+      <c r="BZ38" s="24"/>
+      <c r="CA38" s="24"/>
+      <c r="CB38" s="24"/>
+      <c r="CC38" s="24"/>
+      <c r="CD38" s="24"/>
+      <c r="CE38" s="24"/>
+      <c r="CF38" s="24"/>
+      <c r="CG38" s="24"/>
+      <c r="CH38" s="24"/>
+      <c r="CI38" s="24"/>
+      <c r="CJ38" s="24"/>
+      <c r="CK38" s="24"/>
+      <c r="CL38" s="24"/>
+      <c r="CM38" s="24"/>
+      <c r="CN38" s="24"/>
+      <c r="CO38" s="24"/>
+      <c r="CP38" s="24"/>
+      <c r="CQ38" s="24"/>
+      <c r="CR38" s="24"/>
+      <c r="CS38" s="24"/>
+      <c r="CT38" s="24"/>
+      <c r="CU38" s="24"/>
+      <c r="CV38" s="24"/>
+      <c r="CW38" s="24"/>
+      <c r="CX38" s="24"/>
+      <c r="CY38" s="24"/>
+      <c r="CZ38" s="24"/>
+      <c r="DA38" s="24"/>
+      <c r="DB38" s="24"/>
+    </row>
+    <row r="39" spans="1:106" ht="15.75" customHeight="1">
       <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>3.0</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:106" ht="15.75" customHeight="1">
       <c r="A40" t="s">
         <v>47</v>
       </c>
       <c r="B40">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>20.0</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="34"/>
-      <c r="AQ40" s="34"/>
-      <c r="AR40" s="34"/>
-      <c r="AS40" s="34"/>
-      <c r="AT40" s="34"/>
-      <c r="AU40" s="34"/>
-      <c r="AV40" s="34"/>
-      <c r="AW40" s="34"/>
-      <c r="AX40" s="34"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="27"/>
+      <c r="AN40" s="27"/>
+      <c r="AO40" s="27"/>
+      <c r="AP40" s="27"/>
+      <c r="AQ40" s="27"/>
+      <c r="AR40" s="27"/>
+      <c r="AS40" s="27"/>
+      <c r="AT40" s="27"/>
+      <c r="AU40" s="27"/>
+      <c r="AV40" s="27"/>
+      <c r="AW40" s="27"/>
+      <c r="AX40" s="27"/>
+    </row>
+    <row r="41" spans="1:106" ht="15.75" customHeight="1">
       <c r="A41" t="s">
         <v>48</v>
       </c>
       <c r="B41">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.0</v>
-      </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="AY41" s="36"/>
-      <c r="AZ41" s="36"/>
-      <c r="BA41" s="36"/>
-      <c r="BB41" s="36"/>
-      <c r="BC41" s="36"/>
-      <c r="BD41" s="36"/>
-      <c r="BE41" s="36"/>
-      <c r="BF41" s="36"/>
-      <c r="BG41" s="36"/>
-      <c r="BH41" s="36"/>
-      <c r="BI41" s="36"/>
-      <c r="BJ41" s="36"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="AY41" s="29"/>
+      <c r="AZ41" s="29"/>
+      <c r="BA41" s="29"/>
+      <c r="BB41" s="29"/>
+      <c r="BC41" s="29"/>
+      <c r="BD41" s="29"/>
+      <c r="BE41" s="29"/>
+      <c r="BF41" s="29"/>
+      <c r="BG41" s="29"/>
+      <c r="BH41" s="29"/>
+      <c r="BI41" s="29"/>
+      <c r="BJ41" s="29"/>
+    </row>
+    <row r="42" spans="1:106" ht="15.75" customHeight="1">
       <c r="A42" t="s">
         <v>39</v>
       </c>
       <c r="B42">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>0.0</v>
-      </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="BK42" s="36"/>
-      <c r="BL42" s="36"/>
-      <c r="BM42" s="36"/>
-      <c r="BN42" s="36"/>
-      <c r="BO42" s="36"/>
-      <c r="BP42" s="36"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="BK42" s="29"/>
+      <c r="BL42" s="29"/>
+      <c r="BM42" s="29"/>
+      <c r="BN42" s="29"/>
+      <c r="BO42" s="29"/>
+      <c r="BP42" s="29"/>
+    </row>
+    <row r="43" spans="1:106" ht="15.75" customHeight="1">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.0</v>
-      </c>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="BQ43" s="36"/>
-      <c r="BR43" s="36"/>
-      <c r="BS43" s="36"/>
-      <c r="BT43" s="36"/>
-      <c r="BU43" s="36"/>
-      <c r="BV43" s="36"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="BQ43" s="29"/>
+      <c r="BR43" s="29"/>
+      <c r="BS43" s="29"/>
+      <c r="BT43" s="29"/>
+      <c r="BU43" s="29"/>
+      <c r="BV43" s="29"/>
+    </row>
+    <row r="44" spans="1:106" ht="15.75" customHeight="1">
       <c r="A44" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0.0</v>
-      </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="BW44" s="36"/>
-      <c r="BX44" s="36"/>
-      <c r="BY44" s="36"/>
-      <c r="BZ44" s="36"/>
-      <c r="CA44" s="36"/>
-      <c r="CB44" s="36"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="BW44" s="29"/>
+      <c r="BX44" s="29"/>
+      <c r="BY44" s="29"/>
+      <c r="BZ44" s="29"/>
+      <c r="CA44" s="29"/>
+      <c r="CB44" s="29"/>
+    </row>
+    <row r="45" spans="1:106" ht="15.75" customHeight="1">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="CC45" s="36"/>
-      <c r="CD45" s="36"/>
-      <c r="CE45" s="36"/>
-      <c r="CF45" s="36"/>
-      <c r="CG45" s="36"/>
-      <c r="CH45" s="36"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="CC45" s="29"/>
+      <c r="CD45" s="29"/>
+      <c r="CE45" s="29"/>
+      <c r="CF45" s="29"/>
+      <c r="CG45" s="29"/>
+      <c r="CH45" s="29"/>
+    </row>
+    <row r="46" spans="1:106" ht="15.75" customHeight="1">
+      <c r="A46" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="31"/>
-      <c r="AL46" s="31"/>
-      <c r="AM46" s="31"/>
-      <c r="AN46" s="31"/>
-      <c r="AO46" s="31"/>
-      <c r="AP46" s="31"/>
-      <c r="AQ46" s="31"/>
-      <c r="AR46" s="31"/>
-      <c r="AS46" s="31"/>
-      <c r="AT46" s="31"/>
-      <c r="AU46" s="31"/>
-      <c r="AV46" s="31"/>
-      <c r="AW46" s="31"/>
-      <c r="AX46" s="31"/>
-      <c r="AY46" s="31"/>
-      <c r="AZ46" s="31"/>
-      <c r="BA46" s="31"/>
-      <c r="BB46" s="31"/>
-      <c r="BC46" s="31"/>
-      <c r="BD46" s="31"/>
-      <c r="BE46" s="31"/>
-      <c r="BF46" s="31"/>
-      <c r="BG46" s="31"/>
-      <c r="BH46" s="31"/>
-      <c r="BI46" s="31"/>
-      <c r="BJ46" s="31"/>
-      <c r="BK46" s="31"/>
-      <c r="BL46" s="31"/>
-      <c r="BM46" s="31"/>
-      <c r="BN46" s="31"/>
-      <c r="BO46" s="31"/>
-      <c r="BP46" s="31"/>
-      <c r="BQ46" s="31"/>
-      <c r="BR46" s="31"/>
-      <c r="BS46" s="31"/>
-      <c r="BT46" s="31"/>
-      <c r="BU46" s="31"/>
-      <c r="BV46" s="31"/>
-      <c r="BW46" s="31"/>
-      <c r="BX46" s="31"/>
-      <c r="BY46" s="31"/>
-      <c r="BZ46" s="31"/>
-      <c r="CA46" s="31"/>
-      <c r="CB46" s="31"/>
-      <c r="CC46" s="31"/>
-      <c r="CD46" s="31"/>
-      <c r="CE46" s="31"/>
-      <c r="CF46" s="31"/>
-      <c r="CG46" s="31"/>
-      <c r="CH46" s="31"/>
-      <c r="CI46" s="31"/>
-      <c r="CJ46" s="31"/>
-      <c r="CK46" s="31"/>
-      <c r="CL46" s="31"/>
-      <c r="CM46" s="31"/>
-      <c r="CN46" s="31"/>
-      <c r="CO46" s="31"/>
-      <c r="CP46" s="31"/>
-      <c r="CQ46" s="31"/>
-      <c r="CR46" s="31"/>
-      <c r="CS46" s="31"/>
-      <c r="CT46" s="31"/>
-      <c r="CU46" s="31"/>
-      <c r="CV46" s="31"/>
-      <c r="CW46" s="31"/>
-      <c r="CX46" s="31"/>
-      <c r="CY46" s="31"/>
-      <c r="CZ46" s="31"/>
-      <c r="DA46" s="31"/>
-      <c r="DB46" s="31"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="24"/>
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="24"/>
+      <c r="AH46" s="24"/>
+      <c r="AI46" s="24"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="24"/>
+      <c r="AL46" s="24"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
+      <c r="AQ46" s="24"/>
+      <c r="AR46" s="24"/>
+      <c r="AS46" s="24"/>
+      <c r="AT46" s="24"/>
+      <c r="AU46" s="24"/>
+      <c r="AV46" s="24"/>
+      <c r="AW46" s="24"/>
+      <c r="AX46" s="24"/>
+      <c r="AY46" s="24"/>
+      <c r="AZ46" s="24"/>
+      <c r="BA46" s="24"/>
+      <c r="BB46" s="24"/>
+      <c r="BC46" s="24"/>
+      <c r="BD46" s="24"/>
+      <c r="BE46" s="24"/>
+      <c r="BF46" s="24"/>
+      <c r="BG46" s="24"/>
+      <c r="BH46" s="24"/>
+      <c r="BI46" s="24"/>
+      <c r="BJ46" s="24"/>
+      <c r="BK46" s="24"/>
+      <c r="BL46" s="24"/>
+      <c r="BM46" s="24"/>
+      <c r="BN46" s="24"/>
+      <c r="BO46" s="24"/>
+      <c r="BP46" s="24"/>
+      <c r="BQ46" s="24"/>
+      <c r="BR46" s="24"/>
+      <c r="BS46" s="24"/>
+      <c r="BT46" s="24"/>
+      <c r="BU46" s="24"/>
+      <c r="BV46" s="24"/>
+      <c r="BW46" s="24"/>
+      <c r="BX46" s="24"/>
+      <c r="BY46" s="24"/>
+      <c r="BZ46" s="24"/>
+      <c r="CA46" s="24"/>
+      <c r="CB46" s="24"/>
+      <c r="CC46" s="24"/>
+      <c r="CD46" s="24"/>
+      <c r="CE46" s="24"/>
+      <c r="CF46" s="24"/>
+      <c r="CG46" s="24"/>
+      <c r="CH46" s="24"/>
+      <c r="CI46" s="24"/>
+      <c r="CJ46" s="24"/>
+      <c r="CK46" s="24"/>
+      <c r="CL46" s="24"/>
+      <c r="CM46" s="24"/>
+      <c r="CN46" s="24"/>
+      <c r="CO46" s="24"/>
+      <c r="CP46" s="24"/>
+      <c r="CQ46" s="24"/>
+      <c r="CR46" s="24"/>
+      <c r="CS46" s="24"/>
+      <c r="CT46" s="24"/>
+      <c r="CU46" s="24"/>
+      <c r="CV46" s="24"/>
+      <c r="CW46" s="24"/>
+      <c r="CX46" s="24"/>
+      <c r="CY46" s="24"/>
+      <c r="CZ46" s="24"/>
+      <c r="DA46" s="24"/>
+      <c r="DB46" s="24"/>
+    </row>
+    <row r="47" spans="1:106" ht="15.75" customHeight="1">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1.0</v>
-      </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="1:106" ht="15.75" customHeight="1">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>3.0</v>
-      </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+    </row>
+    <row r="49" spans="1:59" ht="15.75" customHeight="1">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>6.0</v>
-      </c>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+    </row>
+    <row r="50" spans="1:59" ht="15.75" customHeight="1">
       <c r="A50" t="s">
         <v>39</v>
       </c>
       <c r="B50">
-        <v>1.0</v>
-      </c>
-      <c r="C50" s="41">
-        <v>2.0</v>
-      </c>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="43"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="34">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="64"/>
+      <c r="Z50" s="65"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+    </row>
+    <row r="51" spans="1:59" ht="15.75" customHeight="1">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>5.0</v>
-      </c>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="27"/>
+      <c r="AH51" s="27"/>
+    </row>
+    <row r="52" spans="1:59" ht="15.75" customHeight="1">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52">
-        <v>2.0</v>
-      </c>
-      <c r="C52" s="41">
-        <v>2.0</v>
-      </c>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="34"/>
-      <c r="AK52" s="45"/>
-      <c r="AL52" s="45"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="34">
+        <v>2</v>
+      </c>
+      <c r="AI52" s="27"/>
+      <c r="AJ52" s="27"/>
+      <c r="AK52" s="38"/>
+      <c r="AL52" s="38"/>
+    </row>
+    <row r="53" spans="1:59" ht="15.75" customHeight="1">
       <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53">
-        <v>5.0</v>
-      </c>
-      <c r="C53" s="41">
-        <v>6.0</v>
-      </c>
-      <c r="AK53" s="34"/>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="34"/>
-      <c r="AN53" s="34"/>
-      <c r="AO53" s="34"/>
-      <c r="AP53" s="34"/>
-      <c r="AQ53" s="34"/>
-      <c r="AR53" s="34"/>
-      <c r="AS53" s="34"/>
-      <c r="AT53" s="34"/>
-      <c r="AU53" s="43"/>
-      <c r="AV53" s="43"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C53" s="34">
+        <v>6</v>
+      </c>
+      <c r="AK53" s="27"/>
+      <c r="AL53" s="27"/>
+      <c r="AM53" s="27"/>
+      <c r="AN53" s="27"/>
+      <c r="AO53" s="27"/>
+      <c r="AP53" s="27"/>
+      <c r="AQ53" s="27"/>
+      <c r="AR53" s="27"/>
+      <c r="AS53" s="27"/>
+      <c r="AT53" s="27"/>
+      <c r="AU53" s="36"/>
+      <c r="AV53" s="36"/>
+    </row>
+    <row r="54" spans="1:59" ht="15.75" customHeight="1">
       <c r="A54" t="s">
         <v>50</v>
       </c>
       <c r="B54">
-        <v>1.0</v>
-      </c>
-      <c r="C54" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="AU54" s="45"/>
-      <c r="AW54" s="34"/>
-      <c r="AX54" s="47"/>
-      <c r="AY54" s="47"/>
-      <c r="AZ54" s="47"/>
-      <c r="BA54" s="47"/>
-      <c r="BB54" s="47"/>
-      <c r="BC54" s="47"/>
-      <c r="BD54" s="47"/>
-      <c r="BE54" s="43"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="34">
+        <v>5.5</v>
+      </c>
+      <c r="AU54" s="38"/>
+      <c r="AW54" s="27"/>
+      <c r="AX54" s="40"/>
+      <c r="AY54" s="40"/>
+      <c r="AZ54" s="40"/>
+      <c r="BA54" s="40"/>
+      <c r="BB54" s="40"/>
+      <c r="BC54" s="40"/>
+      <c r="BD54" s="40"/>
+      <c r="BE54" s="36"/>
+      <c r="BF54" s="63"/>
+      <c r="BG54" s="63"/>
+    </row>
+    <row r="55" spans="1:59" ht="15.75" customHeight="1">
       <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="50">
-        <f t="shared" ref="B55:C55" si="2">SUM(B1:B54)*100</f>
+      <c r="B55" s="43">
+        <f t="shared" ref="B55:C55" si="1">SUM(B1:B54)*100</f>
         <v>11100</v>
       </c>
-      <c r="C55" s="50">
-        <f t="shared" si="2"/>
-        <v>9750</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="C55" s="43">
+        <f t="shared" si="1"/>
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:59" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:59" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:59" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:59" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:59" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:59" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:59" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:59" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4734,35 +5113,31 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.86"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8">
-        <v>43489.0</v>
-      </c>
-      <c r="D1" s="8">
-        <v>43491.0</v>
+      <c r="C1" s="5">
+        <v>43489</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43491</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -4773,56 +5148,56 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" ht="62.25" customHeight="1">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>0.5</v>
       </c>
       <c r="F3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4831,167 +5206,167 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B9" si="1">SUMIF(C4:L4,A$12,C$3:Z$3)</f>
+        <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$12,C$3:Z$3)</f>
         <v>4.5</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6">
+      <c r="G5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -5000,53 +5375,53 @@
         <v>27</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:L10" si="2">COUNTIF(C4:C9,"*ü*") * C3</f>
+        <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="24" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:12">
+      <c r="A13" s="17"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -6029,449 +6404,445 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="2" width="29.71"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="19" width="3.71"/>
-    <col customWidth="1" min="20" max="26" width="8.86"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="40"/>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="33"/>
+      <c r="B1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="N1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="P1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Q1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="R1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="S1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C3">
-        <v>5.0</v>
-      </c>
-      <c r="D3" s="46">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="D3" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="41"/>
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C4">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="J4" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="48"/>
+    <row r="5" spans="1:19">
+      <c r="A5" s="41"/>
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:D5" si="1">SUM(C2:C4)</f>
+        <f t="shared" ref="C5:D5" si="0">SUM(C2:C4)</f>
         <v>7</v>
       </c>
-      <c r="D5" s="15">
-        <f t="shared" si="1"/>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="41"/>
       <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C7">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="46">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="41"/>
       <c r="B8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C8">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="46">
-        <v>2.0</v>
-      </c>
-      <c r="J8" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="39">
+        <v>2</v>
+      </c>
+      <c r="J8" s="44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:19">
+      <c r="A9" s="41"/>
       <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:D9" si="2">SUM(C6:C8)</f>
+        <f t="shared" ref="C9:D9" si="1">SUM(C6:C8)</f>
         <v>7</v>
       </c>
-      <c r="D9" s="15">
-        <f t="shared" si="2"/>
+      <c r="D9" s="9">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="41"/>
       <c r="B11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C11">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="46">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="41"/>
       <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C12">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1</v>
+      </c>
+      <c r="K12" s="44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="48"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:19">
+      <c r="A13" s="41"/>
+      <c r="B13" s="48"/>
       <c r="C13">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="48"/>
-      <c r="B14" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="41"/>
+      <c r="B14" s="48"/>
       <c r="C14">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="48"/>
-      <c r="B15" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="41"/>
+      <c r="B15" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:D15" si="3">SUM(C10:C14)</f>
+        <f t="shared" ref="C15:D15" si="2">SUM(C10:C14)</f>
         <v>7</v>
       </c>
-      <c r="D15" s="15">
-        <f t="shared" si="3"/>
+      <c r="D15" s="9">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:19">
+      <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="41"/>
       <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C17">
-        <v>5.0</v>
-      </c>
-      <c r="D17" s="46">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="41"/>
       <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C18">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="46">
+        <v>2</v>
+      </c>
+      <c r="D18" s="39">
         <v>0.5</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="48"/>
-      <c r="B19" s="57" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="41"/>
+      <c r="B19" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:D19" si="4">SUM(C16:C18)</f>
+        <f t="shared" ref="C19:D19" si="3">SUM(C16:C18)</f>
         <v>7</v>
       </c>
-      <c r="D19" s="15">
-        <f t="shared" si="4"/>
+      <c r="D19" s="9">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="41"/>
       <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C21">
-        <v>5.0</v>
-      </c>
-      <c r="D21" s="46">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="D21" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="41"/>
       <c r="B22" s="2"/>
-      <c r="D22" s="46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="57" t="s">
+      <c r="D22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="41"/>
+      <c r="B23" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23:D23" si="5">SUM(C20:C22)</f>
+        <f t="shared" ref="C23:D23" si="4">SUM(C20:C22)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="15">
-        <f t="shared" si="5"/>
+      <c r="D23" s="9">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="41"/>
       <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C25">
-        <v>5.0</v>
-      </c>
-      <c r="D25" s="46">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="41"/>
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C26">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="46">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="41"/>
+      <c r="B27" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:D27" si="6">SUM(C24:C26)</f>
+        <f t="shared" ref="C27:D27" si="5">SUM(C24:C26)</f>
         <v>7</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="53"/>
+      <c r="B28" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" ref="C28:D28" si="6">SUM(C5,C9,C15,C19,C23,C27)</f>
+        <v>40</v>
+      </c>
+      <c r="D28" s="14">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="19">
-        <f t="shared" ref="C28:D28" si="7">SUM(C5,C9,C15,C19,C23,C27)</f>
-        <v>40</v>
-      </c>
-      <c r="D28" s="21">
-        <f t="shared" si="7"/>
         <v>36.5</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B29" s="55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -7441,9 +7812,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/DeepPurple_Gaant.xlsx
+++ b/doc/DeepPurple_Gaant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Development\DeepPurple\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepPurple\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7738D0-B606-418C-879C-35E2DE6F55D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C01556-179A-4C02-933A-FBD8AA05AE38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>Master Gaant Chart w/ 30 Minute Time Intervals</t>
   </si>
@@ -244,6 +244,12 @@
   <si>
     <t>red is dependent on others</t>
   </si>
+  <si>
+    <t>Testing and laser attack</t>
+  </si>
+  <si>
+    <t>Patterns and Attack hits</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +300,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +347,24 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -643,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,6 +738,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,9 +754,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,51 +1075,51 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="1" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="2.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="26" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="18" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
-      <c r="C2" s="56" t="s">
+    <row r="2" spans="2:17" ht="14.5">
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="K2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="O2" s="56" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
+      <c r="O2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
-    </row>
-    <row r="3" spans="2:17">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
+    </row>
+    <row r="3" spans="2:17" ht="14.5">
       <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" ht="14.5">
       <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
@@ -1181,7 +1208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" ht="14.5">
       <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
@@ -1232,7 +1259,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" ht="14.5">
       <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
@@ -1283,7 +1310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" ht="14.5">
       <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
@@ -1334,7 +1361,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" ht="14.5">
       <c r="B8" s="8" t="s">
         <v>45</v>
       </c>
@@ -1385,7 +1412,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" ht="14.5">
       <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
@@ -1436,7 +1463,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" ht="14.5">
       <c r="B10" s="42" t="s">
         <v>1</v>
       </c>
@@ -2486,16 +2513,16 @@
   <dimension ref="A1:DB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB42" sqref="AB42"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="106" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="106" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:106" ht="31.5" customHeight="1">
@@ -2508,17 +2535,17 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
       <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:106" ht="36" customHeight="1">
@@ -2688,12 +2715,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:106">
+    <row r="3" spans="1:106" ht="14.5">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:106">
+    <row r="4" spans="1:106" ht="14.5">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2704,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:106">
+    <row r="5" spans="1:106" ht="14.5">
       <c r="B5">
         <v>0</v>
       </c>
@@ -2712,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:106">
+    <row r="6" spans="1:106" ht="14.5">
       <c r="B6">
         <v>0</v>
       </c>
@@ -2720,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:106">
+    <row r="7" spans="1:106" ht="14.5">
       <c r="B7">
         <v>0</v>
       </c>
@@ -2729,7 +2756,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:106">
+    <row r="8" spans="1:106" ht="14.5">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2737,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:106">
+    <row r="9" spans="1:106" ht="14.5">
       <c r="B9">
         <v>0</v>
       </c>
@@ -2745,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:106">
+    <row r="10" spans="1:106" ht="14.5">
       <c r="B10">
         <v>0</v>
       </c>
@@ -2753,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:106">
+    <row r="11" spans="1:106" ht="14.5">
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
@@ -2762,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:106">
+    <row r="12" spans="1:106" ht="14.5">
       <c r="A12" s="24" t="s">
         <v>33</v>
       </c>
@@ -2872,7 +2899,7 @@
       <c r="DA12" s="24"/>
       <c r="DB12" s="24"/>
     </row>
-    <row r="13" spans="1:106">
+    <row r="13" spans="1:106" ht="14.5">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2883,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:106">
+    <row r="14" spans="1:106" ht="14.5">
       <c r="B14">
         <v>0</v>
       </c>
@@ -2891,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:106">
+    <row r="15" spans="1:106" ht="14.5">
       <c r="B15">
         <v>0</v>
       </c>
@@ -2899,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:106">
+    <row r="16" spans="1:106" ht="14.5">
       <c r="B16">
         <v>0</v>
       </c>
@@ -2907,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106">
+    <row r="17" spans="1:106" ht="14.5">
       <c r="B17">
         <v>0</v>
       </c>
@@ -2915,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106">
+    <row r="18" spans="1:106" ht="14.5">
       <c r="B18">
         <v>0</v>
       </c>
@@ -2923,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106">
+    <row r="19" spans="1:106" ht="14.5">
       <c r="B19">
         <v>0</v>
       </c>
@@ -2931,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:106">
+    <row r="20" spans="1:106" ht="14.5">
       <c r="B20">
         <v>0</v>
       </c>
@@ -3464,22 +3491,22 @@
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="29"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="29"/>
-      <c r="AL34" s="29"/>
-      <c r="AM34" s="29"/>
-      <c r="AN34" s="29"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="66"/>
     </row>
     <row r="35" spans="1:106" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -3497,20 +3524,23 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
-      <c r="AO35" s="29"/>
-      <c r="AP35" s="29"/>
-      <c r="AQ35" s="29"/>
-      <c r="AR35" s="29"/>
-      <c r="AS35" s="29"/>
-      <c r="AT35" s="29"/>
-      <c r="AU35" s="29"/>
-      <c r="AV35" s="29"/>
-      <c r="AW35" s="29"/>
-      <c r="AX35" s="29"/>
-      <c r="AY35" s="29"/>
-      <c r="AZ35" s="29"/>
+      <c r="AO35" s="67"/>
+      <c r="AP35" s="67"/>
+      <c r="AQ35" s="67"/>
+      <c r="AR35" s="67"/>
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="67"/>
+      <c r="AU35" s="67"/>
+      <c r="AV35" s="67"/>
+      <c r="AW35" s="67"/>
+      <c r="AX35" s="67"/>
+      <c r="AY35" s="67"/>
+      <c r="AZ35" s="67"/>
     </row>
     <row r="36" spans="1:106" ht="15.75" customHeight="1">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
       <c r="B36">
         <v>0</v>
       </c>
@@ -3527,6 +3557,21 @@
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
+      <c r="BA36" s="68"/>
+      <c r="BB36" s="68"/>
+      <c r="BC36" s="68"/>
+      <c r="BD36" s="68"/>
+      <c r="BE36" s="68"/>
+      <c r="BF36" s="68"/>
+      <c r="BG36" s="68"/>
+      <c r="BH36" s="68"/>
+      <c r="BI36" s="68"/>
+      <c r="BJ36" s="68"/>
+      <c r="BK36" s="68"/>
+      <c r="BL36" s="68"/>
+      <c r="BM36" s="68"/>
+      <c r="BN36" s="68"/>
+      <c r="BO36" s="68"/>
     </row>
     <row r="37" spans="1:106" ht="15.75" customHeight="1">
       <c r="B37">
@@ -4063,10 +4108,10 @@
       <c r="C50" s="34">
         <v>2</v>
       </c>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
     </row>
     <row r="51" spans="1:59" ht="15.75" customHeight="1">
       <c r="A51" t="s">
@@ -4147,8 +4192,8 @@
       <c r="BC54" s="40"/>
       <c r="BD54" s="40"/>
       <c r="BE54" s="36"/>
-      <c r="BF54" s="63"/>
-      <c r="BG54" s="63"/>
+      <c r="BF54" s="56"/>
+      <c r="BG54" s="56"/>
     </row>
     <row r="55" spans="1:59" ht="15.75" customHeight="1">
       <c r="A55" t="s">
@@ -5124,12 +5169,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="14.5">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5183,7 +5228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="14.5">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -5206,7 +5251,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="14.5">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -5233,7 +5278,7 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="14.5">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -5258,7 +5303,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="14.5">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -5285,7 +5330,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="14.5">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -5312,7 +5357,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="14.5">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -5339,7 +5384,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="14.5">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -5366,7 +5411,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="14.5">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -5415,12 +5460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="14.5">
       <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="14.5">
       <c r="A13" s="17"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6415,17 +6460,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="26" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="19" width="3.7265625" customWidth="1"/>
+    <col min="20" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="14.5">
       <c r="A1" s="33"/>
       <c r="B1" s="35" t="s">
         <v>54</v>
@@ -6482,7 +6527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -6496,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="14.5">
       <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>62</v>
@@ -6508,7 +6553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="14.5">
       <c r="A4" s="41"/>
       <c r="B4" s="2" t="s">
         <v>63</v>
@@ -6523,7 +6568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="14.5">
       <c r="A5" s="41"/>
       <c r="B5" s="2" t="s">
         <v>65</v>
@@ -6537,7 +6582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -6551,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="14.5">
       <c r="A7" s="41"/>
       <c r="B7" s="2" t="s">
         <v>62</v>
@@ -6563,7 +6608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="14.5">
       <c r="A8" s="41"/>
       <c r="B8" s="2" t="s">
         <v>66</v>
@@ -6578,7 +6623,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="14.5">
       <c r="A9" s="41"/>
       <c r="B9" s="2" t="s">
         <v>65</v>
@@ -6592,7 +6637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
@@ -6606,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="14.5">
       <c r="A11" s="41"/>
       <c r="B11" s="2" t="s">
         <v>62</v>
@@ -6618,7 +6663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="14.5">
       <c r="A12" s="41"/>
       <c r="B12" s="2" t="s">
         <v>67</v>
@@ -6633,7 +6678,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="14.5">
       <c r="A13" s="41"/>
       <c r="B13" s="48"/>
       <c r="C13">
@@ -6643,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="14.5">
       <c r="A14" s="41"/>
       <c r="B14" s="48"/>
       <c r="C14">
@@ -6653,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="14.5">
       <c r="A15" s="41"/>
       <c r="B15" s="50" t="s">
         <v>65</v>
@@ -6667,7 +6712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
@@ -6681,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="14.5">
       <c r="A17" s="41"/>
       <c r="B17" s="2" t="s">
         <v>62</v>
@@ -6693,7 +6738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="14.5">
       <c r="A18" s="41"/>
       <c r="B18" s="2" t="s">
         <v>68</v>
@@ -6708,7 +6753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="14.5">
       <c r="A19" s="41"/>
       <c r="B19" s="50" t="s">
         <v>65</v>
@@ -6722,7 +6767,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>

--- a/doc/DeepPurple_Gaant.xlsx
+++ b/doc/DeepPurple_Gaant.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Documents/CS Software Engineering/DeepPurple/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26291150-C985-3C43-9661-A288A2E4BE96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Management Summary" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Gantt" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Meetings" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="SA" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Gantt" sheetId="2" r:id="rId2"/>
+    <sheet name="Meetings" sheetId="3" r:id="rId3"/>
+    <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Gantt!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Gantt!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Gantt!$1:$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,266 +39,249 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
   <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systems Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budgeted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deficit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oshan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predicted time(hrs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time spent(hrs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">planned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI Text and Graphic Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory System (Programming/ Graphics)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Properly Communicating Back and Forth With item System (Programming)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heads Up Display (Programming / Graphics)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Properly Communicating Back and Forth with Character Stats (Programming)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blender Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning Unity System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementing Item Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaant Chart Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collect Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layout Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generation Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation/Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designing Characters/ Collect Prefabs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movement Behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auxilary Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing and laser attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patterns and Attack hits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identify Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes after testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program Basic System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate Level Layouts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build Advanced System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananlysis Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFP Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predicted(hrs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spent(hrs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Champion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFP (3 , 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFP (7,8,9,10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFP (5,6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFP (1,2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red is dependent on others</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Systems Analysis</t>
+  </si>
+  <si>
+    <t>Budgeted</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Deficit</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Oshan</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>predicted time(hrs)</t>
+  </si>
+  <si>
+    <t>time spent(hrs)</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>this week</t>
+  </si>
+  <si>
+    <t>planned</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>UI Text and Graphic Design</t>
+  </si>
+  <si>
+    <t>Start Menu</t>
+  </si>
+  <si>
+    <t>Inventory System (Programming/ Graphics)</t>
+  </si>
+  <si>
+    <t>Properly Communicating Back and Forth With item System (Programming)</t>
+  </si>
+  <si>
+    <t>Heads Up Display (Programming / Graphics)</t>
+  </si>
+  <si>
+    <t>Properly Communicating Back and Forth with Character Stats (Programming)</t>
+  </si>
+  <si>
+    <t>Blender Modeling</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Learning Unity System</t>
+  </si>
+  <si>
+    <t>Total&gt;</t>
+  </si>
+  <si>
+    <t>Implementing Item Database</t>
+  </si>
+  <si>
+    <t>Adding Items</t>
+  </si>
+  <si>
+    <t>Gaant Chart Management</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Collect Requirements</t>
+  </si>
+  <si>
+    <t>Layout Design</t>
+  </si>
+  <si>
+    <t>Generation Algorithm</t>
+  </si>
+  <si>
+    <t>Implementation/Programming</t>
+  </si>
+  <si>
+    <t>Designing Characters/ Collect Prefabs</t>
+  </si>
+  <si>
+    <t>Movement Behavior</t>
+  </si>
+  <si>
+    <t>Auxilary Functions</t>
+  </si>
+  <si>
+    <t>Testing and laser attack</t>
+  </si>
+  <si>
+    <t>Patterns and Attack hits</t>
+  </si>
+  <si>
+    <t>Identify Requirements</t>
+  </si>
+  <si>
+    <t>Design system</t>
+  </si>
+  <si>
+    <t>Program system</t>
+  </si>
+  <si>
+    <t>Changes after testing</t>
+  </si>
+  <si>
+    <t>Final Testing</t>
+  </si>
+  <si>
+    <t>Design System</t>
+  </si>
+  <si>
+    <t>Program Basic System</t>
+  </si>
+  <si>
+    <t>Integrate Level Layouts</t>
+  </si>
+  <si>
+    <t>Integration Testing</t>
+  </si>
+  <si>
+    <t>Build Advanced System</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>First Meeting</t>
+  </si>
+  <si>
+    <t>Ananlysis Planning</t>
+  </si>
+  <si>
+    <t>RFP Meeting</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Predicted(hrs)</t>
+  </si>
+  <si>
+    <t>spent(hrs)</t>
+  </si>
+  <si>
+    <t>Individual schedule</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>RFP (3 , 4)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>RFP (7,8,9,10)</t>
+  </si>
+  <si>
+    <t>RFP</t>
+  </si>
+  <si>
+    <t>RFP (5,6)</t>
+  </si>
+  <si>
+    <t>RFP (1,2)</t>
+  </si>
+  <si>
+    <t>red is dependent on others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00_);[RED]&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="D\-MMM"/>
-    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -304,7 +297,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -315,7 +308,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Wingdings"/>
-      <family val="0"/>
       <charset val="2"/>
     </font>
     <font>
@@ -333,7 +325,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,403 +368,238 @@
         <bgColor rgb="FF0D0D0D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="68">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -831,45 +658,352 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:Q10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.83"/>
+    <col min="1" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +1026,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -931,381 +1065,381 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="n">
-        <f aca="false">(G4+K4 +O4)</f>
+      <c r="C4" s="11">
+        <f t="shared" ref="C4:D9" si="0">(G4+K4 +O4)</f>
         <v>6800</v>
       </c>
-      <c r="D4" s="12" t="n">
-        <f aca="false">(H4+L4 +P4)</f>
-        <v>4700</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <f aca="false">(C4-D4)</f>
-        <v>2100</v>
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E9" si="1">(C4-D4)</f>
+        <v>1400</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="14" t="n">
-        <f aca="false">Gantt!B12*100</f>
+      <c r="G4" s="14">
+        <f>Gantt!B12*100</f>
         <v>5100</v>
       </c>
-      <c r="H4" s="15" t="n">
-        <f aca="false">Gantt!C12*100</f>
-        <v>3750</v>
-      </c>
-      <c r="I4" s="16" t="n">
-        <f aca="false">(G4-H4)</f>
-        <v>1350</v>
-      </c>
-      <c r="K4" s="11" t="n">
-        <f aca="false">100*10</f>
+      <c r="H4" s="15">
+        <f>Gantt!C12*100</f>
+        <v>4450</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" ref="I4:I9" si="2">(G4-H4)</f>
+        <v>650</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K9" si="3">100*10</f>
         <v>1000</v>
       </c>
-      <c r="L4" s="12" t="n">
-        <f aca="false">Meetings!B4*100</f>
+      <c r="L4" s="12">
+        <f>Meetings!B4*100</f>
         <v>350</v>
       </c>
-      <c r="M4" s="13" t="n">
-        <f aca="false">(K4-L4)</f>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M9" si="4">(K4-L4)</f>
         <v>650</v>
       </c>
-      <c r="O4" s="11" t="n">
-        <f aca="false">(SA!C5)*100</f>
+      <c r="O4" s="11">
+        <f>(SA!C5)*100</f>
         <v>700</v>
       </c>
-      <c r="P4" s="12" t="n">
-        <f aca="false">(SA!D5)*100</f>
+      <c r="P4" s="12">
+        <f>(SA!D5)*100</f>
         <v>600</v>
       </c>
-      <c r="Q4" s="13" t="n">
-        <f aca="false">(O4-P4)</f>
+      <c r="Q4" s="13">
+        <f t="shared" ref="Q4:Q9" si="5">(O4-P4)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="n">
-        <f aca="false">(G5+K5 +O5)</f>
+      <c r="C5" s="14">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="D5" s="15" t="n">
-        <f aca="false">(H5+L5 +P5)</f>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
         <v>2775</v>
       </c>
-      <c r="E5" s="16" t="n">
-        <f aca="false">(C5-D5)</f>
+      <c r="E5" s="16">
+        <f t="shared" si="1"/>
         <v>1225</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="14" t="n">
-        <f aca="false">Gantt!B22*100</f>
+      <c r="G5" s="14">
+        <f>Gantt!B22*100</f>
         <v>2300</v>
       </c>
-      <c r="H5" s="15" t="n">
-        <f aca="false">Gantt!C22*100</f>
+      <c r="H5" s="15">
+        <f>Gantt!C22*100</f>
         <v>1550</v>
       </c>
-      <c r="I5" s="16" t="n">
-        <f aca="false">(G5-H5)</f>
+      <c r="I5" s="16">
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="K5" s="11" t="n">
-        <f aca="false">100*10</f>
+      <c r="K5" s="11">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="L5" s="12" t="n">
-        <f aca="false">Meetings!B5*100</f>
+      <c r="L5" s="12">
+        <f>Meetings!B5*100</f>
         <v>425</v>
       </c>
-      <c r="M5" s="16" t="n">
-        <f aca="false">(K5-L5)</f>
+      <c r="M5" s="16">
+        <f t="shared" si="4"/>
         <v>575</v>
       </c>
-      <c r="O5" s="14" t="n">
-        <f aca="false">(SA!C9)*100</f>
+      <c r="O5" s="14">
+        <f>(SA!C9)*100</f>
         <v>700</v>
       </c>
-      <c r="P5" s="15" t="n">
-        <f aca="false">(SA!D9)*100</f>
+      <c r="P5" s="15">
+        <f>(SA!D9)*100</f>
         <v>800</v>
       </c>
-      <c r="Q5" s="16" t="n">
-        <f aca="false">(O5-P5)</f>
+      <c r="Q5" s="16">
+        <f t="shared" si="5"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="n">
-        <f aca="false">(G6+K6 +O6)</f>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="D6" s="15" t="n">
-        <f aca="false">(H6+L6 +P6)</f>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
         <v>12225</v>
       </c>
-      <c r="E6" s="16" t="n">
-        <f aca="false">(C6-D6)</f>
+      <c r="E6" s="16">
+        <f t="shared" si="1"/>
         <v>-3525</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="14" t="n">
-        <f aca="false">Gantt!B30*100</f>
+      <c r="G6" s="14">
+        <f>Gantt!B30*100</f>
         <v>3500</v>
       </c>
-      <c r="H6" s="15" t="n">
-        <f aca="false">Gantt!C30*100</f>
+      <c r="H6" s="15">
+        <f>Gantt!C30*100</f>
         <v>5600</v>
       </c>
-      <c r="I6" s="16" t="n">
-        <f aca="false">(G6-H6)</f>
+      <c r="I6" s="16">
+        <f t="shared" si="2"/>
         <v>-2100</v>
       </c>
-      <c r="K6" s="11" t="n">
-        <f aca="false">100*10</f>
+      <c r="K6" s="11">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="L6" s="12" t="n">
-        <f aca="false">Meetings!B6*100</f>
+      <c r="L6" s="12">
+        <f>Meetings!B6*100</f>
         <v>425</v>
       </c>
-      <c r="M6" s="16" t="n">
-        <f aca="false">(K6-L6)</f>
+      <c r="M6" s="16">
+        <f t="shared" si="4"/>
         <v>575</v>
       </c>
-      <c r="O6" s="14" t="n">
-        <f aca="false">(SA!C15)*100</f>
+      <c r="O6" s="14">
+        <f>(SA!C15)*100</f>
         <v>4200</v>
       </c>
-      <c r="P6" s="15" t="n">
-        <f aca="false">(SA!D15)*100</f>
+      <c r="P6" s="15">
+        <f>(SA!D15)*100</f>
         <v>6200</v>
       </c>
-      <c r="Q6" s="16" t="n">
-        <f aca="false">(O6-P6)</f>
+      <c r="Q6" s="16">
+        <f t="shared" si="5"/>
         <v>-2000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17" t="n">
-        <f aca="false">(G7+K7 +O7)</f>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="D7" s="18" t="n">
-        <f aca="false">(H7+L7 +P7)</f>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="E7" s="19" t="n">
-        <f aca="false">(C7-D7)</f>
+      <c r="E7" s="19">
+        <f t="shared" si="1"/>
         <v>2300</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="14" t="n">
-        <f aca="false">Gantt!B38*100</f>
+      <c r="G7" s="14">
+        <f>Gantt!B38*100</f>
         <v>2700</v>
       </c>
-      <c r="H7" s="15" t="n">
-        <f aca="false">Gantt!C38*100</f>
+      <c r="H7" s="15">
+        <f>Gantt!C38*100</f>
         <v>1200</v>
       </c>
-      <c r="I7" s="16" t="n">
-        <f aca="false">(G7-H7)</f>
+      <c r="I7" s="16">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="K7" s="11" t="n">
-        <f aca="false">100*10</f>
+      <c r="K7" s="11">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="L7" s="12" t="n">
-        <f aca="false">Meetings!B7*100</f>
+      <c r="L7" s="12">
+        <f>Meetings!B7*100</f>
         <v>350</v>
       </c>
-      <c r="M7" s="16" t="n">
-        <f aca="false">(K7-L7)</f>
+      <c r="M7" s="16">
+        <f t="shared" si="4"/>
         <v>650</v>
       </c>
-      <c r="O7" s="17" t="n">
-        <f aca="false">(SA!C18)*100</f>
+      <c r="O7" s="17">
+        <f>(SA!C18)*100</f>
         <v>200</v>
       </c>
-      <c r="P7" s="18" t="n">
-        <f aca="false">(SA!D18)*100</f>
+      <c r="P7" s="18">
+        <f>(SA!D18)*100</f>
         <v>50</v>
       </c>
-      <c r="Q7" s="19" t="n">
-        <f aca="false">(O7-P7)</f>
+      <c r="Q7" s="19">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17" t="n">
-        <f aca="false">(G8+K8 +O8)</f>
+      <c r="C8" s="17">
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="D8" s="18" t="n">
-        <f aca="false">(H8+L8 +P8)</f>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="E8" s="19" t="n">
-        <f aca="false">(C8-D8)</f>
+      <c r="E8" s="19">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="14" t="n">
-        <f aca="false">Gantt!B47*100</f>
+      <c r="G8" s="14">
+        <f>Gantt!B47*100</f>
         <v>2400</v>
       </c>
-      <c r="H8" s="15" t="n">
-        <f aca="false">Gantt!C47*100</f>
+      <c r="H8" s="15">
+        <f>Gantt!C47*100</f>
         <v>2300</v>
       </c>
-      <c r="I8" s="16" t="n">
-        <f aca="false">(G8-H8)</f>
+      <c r="I8" s="16">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K8" s="11" t="n">
-        <f aca="false">100*10</f>
+      <c r="K8" s="11">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="L8" s="12" t="n">
-        <f aca="false">Meetings!B8*100</f>
+      <c r="L8" s="12">
+        <f>Meetings!B8*100</f>
         <v>250</v>
       </c>
-      <c r="M8" s="16" t="n">
-        <f aca="false">(K8-L8)</f>
+      <c r="M8" s="16">
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
-      <c r="O8" s="17" t="n">
-        <f aca="false">(SA!C18)*100</f>
+      <c r="O8" s="17">
+        <f>(SA!C18)*100</f>
         <v>200</v>
       </c>
-      <c r="P8" s="18" t="n">
-        <f aca="false">(SA!D18)*100</f>
+      <c r="P8" s="18">
+        <f>(SA!D18)*100</f>
         <v>50</v>
       </c>
-      <c r="Q8" s="19" t="n">
-        <f aca="false">(O8-P8)</f>
+      <c r="Q8" s="19">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17" t="n">
-        <f aca="false">(G9+K9 +O9)</f>
+      <c r="C9" s="17">
+        <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="D9" s="18" t="n">
-        <f aca="false">(H9+L9 +P9)</f>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
         <v>3850</v>
       </c>
-      <c r="E9" s="19" t="n">
-        <f aca="false">(C9-D9)</f>
+      <c r="E9" s="19">
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="14" t="n">
-        <f aca="false">Gantt!B57*100</f>
+      <c r="G9" s="14">
+        <f>Gantt!B57*100</f>
         <v>2500</v>
       </c>
-      <c r="H9" s="15" t="n">
-        <f aca="false">Gantt!C57*100</f>
+      <c r="H9" s="15">
+        <f>Gantt!C57*100</f>
         <v>3050</v>
       </c>
-      <c r="I9" s="16" t="n">
-        <f aca="false">(G9-H9)</f>
+      <c r="I9" s="16">
+        <f t="shared" si="2"/>
         <v>-550</v>
       </c>
-      <c r="K9" s="11" t="n">
-        <f aca="false">100*10</f>
+      <c r="K9" s="11">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="L9" s="12" t="n">
-        <f aca="false">Meetings!B9*100</f>
+      <c r="L9" s="12">
+        <f>Meetings!B9*100</f>
         <v>250</v>
       </c>
-      <c r="M9" s="16" t="n">
-        <f aca="false">(K9-L9)</f>
+      <c r="M9" s="16">
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
-      <c r="O9" s="17" t="n">
-        <f aca="false">(SA!C19)*100</f>
+      <c r="O9" s="17">
+        <f>(SA!C19)*100</f>
         <v>700</v>
       </c>
-      <c r="P9" s="18" t="n">
-        <f aca="false">(SA!D19)*100</f>
+      <c r="P9" s="18">
+        <f>(SA!D19)*100</f>
         <v>550</v>
       </c>
-      <c r="Q9" s="19" t="n">
-        <f aca="false">(O9-P9)</f>
+      <c r="Q9" s="19">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="21" t="n">
-        <f aca="false">SUM(C4:C9)</f>
+      <c r="C10" s="21">
+        <f>SUM(C4:C9)</f>
         <v>31200</v>
       </c>
-      <c r="D10" s="22" t="n">
-        <f aca="false">SUM(D4:D9)</f>
-        <v>27750</v>
-      </c>
-      <c r="E10" s="23" t="n">
-        <f aca="false">SUM(E4:E9)</f>
-        <v>3450</v>
+      <c r="D10" s="22">
+        <f>SUM(D4:D9)</f>
+        <v>28450</v>
+      </c>
+      <c r="E10" s="23">
+        <f>SUM(E4:E9)</f>
+        <v>2750</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="24" t="n">
-        <f aca="false">SUM(G4:G9)</f>
+      <c r="G10" s="24">
+        <f>SUM(G4:G9)</f>
         <v>18500</v>
       </c>
-      <c r="H10" s="25" t="n">
-        <f aca="false">SUM(H4:H9)</f>
-        <v>17450</v>
-      </c>
-      <c r="I10" s="26" t="n">
-        <f aca="false">SUM(I4:I9)</f>
-        <v>1050</v>
-      </c>
-      <c r="K10" s="24" t="n">
-        <f aca="false">SUM(K4:K9)</f>
+      <c r="H10" s="25">
+        <f>SUM(H4:H9)</f>
+        <v>18150</v>
+      </c>
+      <c r="I10" s="26">
+        <f>SUM(I4:I9)</f>
+        <v>350</v>
+      </c>
+      <c r="K10" s="24">
+        <f>SUM(K4:K9)</f>
         <v>6000</v>
       </c>
-      <c r="L10" s="25" t="n">
-        <f aca="false">SUM(L4:L9)</f>
+      <c r="L10" s="25">
+        <f>SUM(L4:L9)</f>
         <v>2050</v>
       </c>
-      <c r="M10" s="26" t="n">
-        <f aca="false">SUM(M4:M9)</f>
+      <c r="M10" s="26">
+        <f>SUM(M4:M9)</f>
         <v>3950</v>
       </c>
-      <c r="O10" s="21" t="n">
-        <f aca="false">SUM(O4:O9)</f>
+      <c r="O10" s="21">
+        <f>SUM(O4:O9)</f>
         <v>6700</v>
       </c>
-      <c r="P10" s="22" t="n">
-        <f aca="false">SUM(P4:P9)</f>
+      <c r="P10" s="22">
+        <f>SUM(P4:P9)</f>
         <v>8250</v>
       </c>
-      <c r="Q10" s="23" t="n">
-        <f aca="false">SUM(Q4:Q9)</f>
+      <c r="Q10" s="23">
+        <f>SUM(Q4:Q9)</f>
         <v>-1550</v>
       </c>
     </row>
@@ -1316,234 +1450,225 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DC57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="CY29" activeCellId="0" sqref="CY29"/>
+    <sheetView zoomScale="125" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="5" style="0" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="107" style="0" width="8.83"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="106" width="3.83203125" customWidth="1"/>
+    <col min="107" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="27"/>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="28"/>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="29"/>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>6</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>7</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>8</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>9</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>10</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2">
         <v>11</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2">
         <v>12</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>13</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>14</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2">
         <v>15</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2">
         <v>16</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2">
         <v>17</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2">
         <v>18</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2">
         <v>19</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2">
         <v>20</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2">
         <v>21</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2">
         <v>22</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AY2">
         <v>23</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2">
         <v>24</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2">
         <v>25</v>
       </c>
-      <c r="BE2" s="0" t="n">
+      <c r="BE2">
         <v>26</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2">
         <v>27</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2">
         <v>28</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2">
         <v>29</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2">
         <v>30</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2">
         <v>31</v>
       </c>
-      <c r="BQ2" s="0" t="n">
+      <c r="BQ2">
         <v>32</v>
       </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BS2">
         <v>33</v>
       </c>
-      <c r="BU2" s="0" t="n">
+      <c r="BU2">
         <v>34</v>
       </c>
-      <c r="BW2" s="0" t="n">
+      <c r="BW2">
         <v>35</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2">
         <v>36</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2">
         <v>37</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2">
         <v>38</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2">
         <v>39</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2">
         <v>40</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2">
         <v>41</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2">
         <v>42</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2">
         <v>43</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2">
         <v>44</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2">
         <v>45</v>
       </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CS2">
         <v>46</v>
       </c>
-      <c r="CU2" s="0" t="n">
+      <c r="CU2">
         <v>47</v>
       </c>
-      <c r="CW2" s="0" t="n">
+      <c r="CW2">
         <v>48</v>
       </c>
-      <c r="CY2" s="0" t="n">
+      <c r="CY2">
         <v>49</v>
       </c>
-      <c r="DA2" s="0" t="n">
+      <c r="DA2">
         <v>50</v>
       </c>
-      <c r="DC2" s="0" t="n">
+      <c r="DC2">
         <v>51</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
@@ -1577,14 +1702,14 @@
       <c r="AL3" s="31"/>
       <c r="AM3" s="31"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3.5</v>
       </c>
       <c r="E4" s="6"/>
@@ -1618,14 +1743,14 @@
       <c r="AS4" s="31"/>
       <c r="AT4" s="31"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="E5" s="6"/>
@@ -1661,14 +1786,14 @@
       <c r="BB5" s="31"/>
       <c r="BC5" s="31"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" s="6"/>
@@ -1697,14 +1822,14 @@
       <c r="BD6" s="31"/>
       <c r="BE6" s="31"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>4</v>
       </c>
       <c r="E7" s="6"/>
@@ -1739,15 +1864,15 @@
       <c r="BL7" s="31"/>
       <c r="BM7" s="31"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
+      <c r="C8">
+        <v>4</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1772,23 +1897,23 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-      <c r="BZ8" s="28"/>
-      <c r="CA8" s="28"/>
-      <c r="CB8" s="28"/>
-      <c r="CC8" s="28"/>
-      <c r="CD8" s="28"/>
-      <c r="CE8" s="28"/>
-      <c r="CF8" s="28"/>
-      <c r="CG8" s="28"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="BZ8" s="67"/>
+      <c r="CA8" s="67"/>
+      <c r="CB8" s="67"/>
+      <c r="CC8" s="67"/>
+      <c r="CD8" s="67"/>
+      <c r="CE8" s="67"/>
+      <c r="CF8" s="67"/>
+      <c r="CG8" s="67"/>
+    </row>
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>6</v>
       </c>
       <c r="E9" s="6"/>
@@ -1827,15 +1952,15 @@
       <c r="BX9" s="31"/>
       <c r="BY9" s="31"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>2</v>
+      <c r="C10">
+        <v>5</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1860,25 +1985,25 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
-      <c r="CH10" s="28"/>
-      <c r="CI10" s="28"/>
-      <c r="CJ10" s="28"/>
-      <c r="CK10" s="28"/>
-      <c r="CL10" s="28"/>
-      <c r="CM10" s="28"/>
-      <c r="CN10" s="28"/>
-      <c r="CO10" s="28"/>
-      <c r="CP10" s="28"/>
-      <c r="CQ10" s="28"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="CH10" s="67"/>
+      <c r="CI10" s="67"/>
+      <c r="CJ10" s="67"/>
+      <c r="CK10" s="67"/>
+      <c r="CL10" s="67"/>
+      <c r="CM10" s="67"/>
+      <c r="CN10" s="67"/>
+      <c r="CO10" s="67"/>
+      <c r="CP10" s="67"/>
+      <c r="CQ10" s="67"/>
+    </row>
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>14</v>
       </c>
       <c r="E11" s="31"/>
@@ -1913,17 +2038,17 @@
       <c r="AH11" s="33"/>
       <c r="AI11" s="33"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <f aca="false">SUM(B3:B11)</f>
+      <c r="B12">
+        <f>SUM(B3:B11)</f>
         <v>51</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">SUM(C3:C11)</f>
-        <v>37.5</v>
+      <c r="C12">
+        <f>SUM(C3:C11)</f>
+        <v>44.5</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1949,14 +2074,14 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
       <c r="E13" s="6"/>
@@ -1983,14 +2108,14 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>10</v>
       </c>
       <c r="E14" s="35"/>
@@ -2017,14 +2142,14 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>2</v>
       </c>
       <c r="E15" s="6"/>
@@ -2052,14 +2177,14 @@
       <c r="AA15" s="31"/>
       <c r="AB15" s="31"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" s="6"/>
@@ -2106,14 +2231,14 @@
       <c r="AU16" s="28"/>
       <c r="AV16" s="28"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>2.5</v>
       </c>
       <c r="E17" s="6"/>
@@ -2145,14 +2270,14 @@
       <c r="AZ17" s="31"/>
       <c r="BA17" s="31"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>0</v>
       </c>
       <c r="E18" s="6"/>
@@ -2183,14 +2308,14 @@
       <c r="BD18" s="29"/>
       <c r="BE18" s="29"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>0</v>
       </c>
       <c r="E19" s="6"/>
@@ -2229,7 +2354,7 @@
       <c r="BP19" s="29"/>
       <c r="BQ19" s="29"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.2">
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2254,7 +2379,7 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.2">
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2279,16 +2404,16 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <f aca="false">SUM(B14:B20)</f>
+      <c r="B22">
+        <f>SUM(B14:B20)</f>
         <v>23</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <f aca="false">SUM(C14:C21)</f>
+      <c r="C22">
+        <f>SUM(C14:C21)</f>
         <v>15.5</v>
       </c>
       <c r="E22" s="32"/>
@@ -2315,7 +2440,7 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>9</v>
       </c>
@@ -2343,14 +2468,14 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="38" t="n">
+      <c r="B24" s="38">
         <v>6</v>
       </c>
-      <c r="C24" s="38" t="n">
+      <c r="C24" s="38">
         <v>4</v>
       </c>
       <c r="D24" s="38"/>
@@ -2456,14 +2581,14 @@
       <c r="CZ24" s="38"/>
       <c r="DA24" s="38"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="38" t="n">
+      <c r="B25" s="38">
         <v>6</v>
       </c>
-      <c r="C25" s="38" t="n">
+      <c r="C25" s="38">
         <v>8</v>
       </c>
       <c r="D25" s="38"/>
@@ -2569,14 +2694,14 @@
       <c r="CZ25" s="38"/>
       <c r="DA25" s="38"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="38" t="n">
+      <c r="B26" s="38">
         <v>6</v>
       </c>
-      <c r="C26" s="38" t="n">
+      <c r="C26" s="38">
         <v>9</v>
       </c>
       <c r="D26" s="38"/>
@@ -2682,14 +2807,14 @@
       <c r="CZ26" s="38"/>
       <c r="DA26" s="38"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="38" t="n">
+      <c r="B27" s="38">
         <v>8</v>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="38">
         <v>23</v>
       </c>
       <c r="D27" s="38"/>
@@ -2795,14 +2920,14 @@
       <c r="CZ27" s="38"/>
       <c r="DA27" s="38"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="38" t="n">
+      <c r="B28" s="38">
         <v>6</v>
       </c>
-      <c r="C28" s="38" t="n">
+      <c r="C28" s="38">
         <v>6</v>
       </c>
       <c r="D28" s="38"/>
@@ -2908,14 +3033,14 @@
       <c r="CZ28" s="38"/>
       <c r="DA28" s="38"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="38" t="n">
+      <c r="B29" s="38">
         <v>3</v>
       </c>
-      <c r="C29" s="38" t="n">
+      <c r="C29" s="38">
         <v>6</v>
       </c>
       <c r="D29" s="38"/>
@@ -3021,16 +3146,16 @@
       <c r="CZ29" s="38"/>
       <c r="DA29" s="38"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <f aca="false">SUM(B24:B29)</f>
+      <c r="B30">
+        <f>SUM(B24:B29)</f>
         <v>35</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <f aca="false">SUM(C24:C29)</f>
+      <c r="C30">
+        <f>SUM(C24:C29)</f>
         <v>56</v>
       </c>
       <c r="E30" s="6"/>
@@ -3057,14 +3182,14 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>0</v>
       </c>
       <c r="E31" s="6"/>
@@ -3091,14 +3216,14 @@
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="38" t="n">
+      <c r="B32" s="38">
         <v>4</v>
       </c>
-      <c r="C32" s="38" t="n">
+      <c r="C32" s="38">
         <v>4</v>
       </c>
       <c r="D32" s="38"/>
@@ -3204,14 +3329,14 @@
       <c r="CZ32" s="38"/>
       <c r="DA32" s="38"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="38" t="n">
+      <c r="B33" s="38">
         <v>8</v>
       </c>
-      <c r="C33" s="38" t="n">
+      <c r="C33" s="38">
         <v>5</v>
       </c>
       <c r="D33" s="38"/>
@@ -3317,14 +3442,14 @@
       <c r="CZ33" s="38"/>
       <c r="DA33" s="38"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="38" t="n">
+      <c r="B34" s="38">
         <v>3</v>
       </c>
-      <c r="C34" s="38" t="n">
+      <c r="C34" s="38">
         <v>3</v>
       </c>
       <c r="D34" s="38"/>
@@ -3430,14 +3555,14 @@
       <c r="CZ34" s="38"/>
       <c r="DA34" s="38"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="38" t="n">
+      <c r="B35" s="38">
         <v>6</v>
       </c>
-      <c r="C35" s="38" t="n">
+      <c r="C35" s="38">
         <v>0</v>
       </c>
       <c r="D35" s="38"/>
@@ -3543,14 +3668,14 @@
       <c r="CZ35" s="38"/>
       <c r="DA35" s="38"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="38" t="n">
+      <c r="B36" s="38">
         <v>6</v>
       </c>
-      <c r="C36" s="38" t="n">
+      <c r="C36" s="38">
         <v>0</v>
       </c>
       <c r="D36" s="38"/>
@@ -3656,14 +3781,14 @@
       <c r="CZ36" s="38"/>
       <c r="DA36" s="38"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="38" t="n">
+      <c r="B37" s="38">
         <v>0</v>
       </c>
-      <c r="C37" s="38" t="n">
+      <c r="C37" s="38">
         <v>0</v>
       </c>
       <c r="D37" s="38"/>
@@ -3769,16 +3894,16 @@
       <c r="CZ37" s="38"/>
       <c r="DA37" s="38"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <f aca="false">SUM(B32:B37)</f>
+      <c r="B38">
+        <f>SUM(B32:B37)</f>
         <v>27</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <f aca="false">SUM(C32:C37)</f>
+      <c r="C38">
+        <f>SUM(C32:C37)</f>
         <v>12</v>
       </c>
       <c r="E38" s="6"/>
@@ -3805,14 +3930,14 @@
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A39" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>0</v>
       </c>
       <c r="E39" s="6"/>
@@ -3839,14 +3964,14 @@
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="38" t="n">
+      <c r="B40" s="38">
         <v>1</v>
       </c>
-      <c r="C40" s="38" t="n">
+      <c r="C40" s="38">
         <v>3</v>
       </c>
       <c r="D40" s="38"/>
@@ -3952,14 +4077,14 @@
       <c r="CZ40" s="38"/>
       <c r="DA40" s="38"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="38" t="n">
+      <c r="B41" s="38">
         <v>5</v>
       </c>
-      <c r="C41" s="38" t="n">
+      <c r="C41" s="38">
         <v>20</v>
       </c>
       <c r="D41" s="38"/>
@@ -4065,14 +4190,14 @@
       <c r="CZ41" s="38"/>
       <c r="DA41" s="38"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="38" t="n">
+      <c r="B42" s="38">
         <v>6</v>
       </c>
-      <c r="C42" s="38" t="n">
+      <c r="C42" s="38">
         <v>0</v>
       </c>
       <c r="D42" s="38"/>
@@ -4178,14 +4303,14 @@
       <c r="CZ42" s="38"/>
       <c r="DA42" s="38"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="38" t="n">
+      <c r="B43" s="38">
         <v>3</v>
       </c>
-      <c r="C43" s="38" t="n">
+      <c r="C43" s="38">
         <v>0</v>
       </c>
       <c r="D43" s="38"/>
@@ -4291,14 +4416,14 @@
       <c r="CZ43" s="38"/>
       <c r="DA43" s="38"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="38" t="n">
+      <c r="B44" s="38">
         <v>3</v>
       </c>
-      <c r="C44" s="38" t="n">
+      <c r="C44" s="38">
         <v>0</v>
       </c>
       <c r="D44" s="38"/>
@@ -4404,14 +4529,14 @@
       <c r="CZ44" s="38"/>
       <c r="DA44" s="38"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="38" t="n">
+      <c r="B45" s="38">
         <v>3</v>
       </c>
-      <c r="C45" s="38" t="n">
+      <c r="C45" s="38">
         <v>0</v>
       </c>
       <c r="D45" s="38"/>
@@ -4517,14 +4642,14 @@
       <c r="CZ45" s="38"/>
       <c r="DA45" s="38"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="38" t="n">
+      <c r="B46" s="38">
         <v>3</v>
       </c>
-      <c r="C46" s="38" t="n">
+      <c r="C46" s="38">
         <v>0</v>
       </c>
       <c r="D46" s="38"/>
@@ -4630,16 +4755,16 @@
       <c r="CZ46" s="38"/>
       <c r="DA46" s="38"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <f aca="false">SUM(B40:B46)</f>
+      <c r="B47">
+        <f>SUM(B40:B46)</f>
         <v>24</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <f aca="false">SUM(C40:C46)</f>
+      <c r="C47">
+        <f>SUM(C40:C46)</f>
         <v>23</v>
       </c>
       <c r="E47" s="6"/>
@@ -4665,14 +4790,14 @@
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>1</v>
       </c>
       <c r="E48" s="6"/>
@@ -4698,14 +4823,14 @@
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="38" t="n">
+      <c r="B49" s="38">
         <v>1</v>
       </c>
-      <c r="C49" s="38" t="n">
+      <c r="C49" s="38">
         <v>1</v>
       </c>
       <c r="D49" s="38"/>
@@ -4766,14 +4891,14 @@
       <c r="BG49" s="38"/>
       <c r="BH49" s="38"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="38" t="n">
+      <c r="B50" s="38">
         <v>5</v>
       </c>
-      <c r="C50" s="38" t="n">
+      <c r="C50" s="38">
         <v>3</v>
       </c>
       <c r="D50" s="38"/>
@@ -4834,14 +4959,14 @@
       <c r="BG50" s="38"/>
       <c r="BH50" s="38"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="38" t="n">
+      <c r="B51" s="38">
         <v>5</v>
       </c>
-      <c r="C51" s="38" t="n">
+      <c r="C51" s="38">
         <v>6</v>
       </c>
       <c r="D51" s="38"/>
@@ -4902,14 +5027,14 @@
       <c r="BG51" s="38"/>
       <c r="BH51" s="38"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="38" t="n">
+      <c r="B52" s="38">
         <v>1</v>
       </c>
-      <c r="C52" s="45" t="n">
+      <c r="C52" s="45">
         <v>2</v>
       </c>
       <c r="D52" s="38"/>
@@ -4970,14 +5095,14 @@
       <c r="BG52" s="38"/>
       <c r="BH52" s="38"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="38" t="n">
+      <c r="B53" s="38">
         <v>5</v>
       </c>
-      <c r="C53" s="38" t="n">
+      <c r="C53" s="38">
         <v>5</v>
       </c>
       <c r="D53" s="38"/>
@@ -5038,14 +5163,14 @@
       <c r="BG53" s="38"/>
       <c r="BH53" s="38"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="38" t="n">
+      <c r="B54" s="38">
         <v>2</v>
       </c>
-      <c r="C54" s="45" t="n">
+      <c r="C54" s="45">
         <v>2</v>
       </c>
       <c r="D54" s="38"/>
@@ -5106,14 +5231,14 @@
       <c r="BG54" s="38"/>
       <c r="BH54" s="38"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="38" t="n">
+      <c r="B55" s="38">
         <v>5</v>
       </c>
-      <c r="C55" s="45" t="n">
+      <c r="C55" s="45">
         <v>6</v>
       </c>
       <c r="D55" s="38"/>
@@ -5174,14 +5299,14 @@
       <c r="BG55" s="38"/>
       <c r="BH55" s="38"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="38" t="n">
+      <c r="B56" s="38">
         <v>1</v>
       </c>
-      <c r="C56" s="45" t="n">
+      <c r="C56" s="45">
         <v>5.5</v>
       </c>
       <c r="D56" s="38"/>
@@ -5242,47 +5367,39 @@
       <c r="BG56" s="41"/>
       <c r="BH56" s="38"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <f aca="false">SUM(B49:B56)</f>
+      <c r="B57">
+        <f>SUM(B49:B56)</f>
         <v>25</v>
       </c>
-      <c r="C57" s="0" t="n">
-        <f aca="false">SUM(C49:C56)</f>
+      <c r="C57">
+        <f>SUM(C49:C56)</f>
         <v>30.5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.83"/>
+    <col min="1" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="48" t="s">
         <v>53</v>
       </c>
@@ -5290,7 +5407,7 @@
       <c r="D1" s="49"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
-      <c r="G1" s="50" t="n">
+      <c r="G1" s="50">
         <v>43546</v>
       </c>
       <c r="H1" s="48"/>
@@ -5299,7 +5416,7 @@
       <c r="K1" s="48"/>
       <c r="L1" s="48"/>
     </row>
-    <row r="2" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="48" t="s">
         <v>54</v>
       </c>
@@ -5324,23 +5441,23 @@
       <c r="K2" s="51"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="48" t="n">
+      <c r="C3" s="48">
         <v>1</v>
       </c>
-      <c r="D3" s="48" t="n">
+      <c r="D3" s="48">
         <v>1</v>
       </c>
-      <c r="E3" s="48" t="n">
+      <c r="E3" s="48">
         <v>0.5</v>
       </c>
-      <c r="F3" s="48" t="n">
+      <c r="F3" s="48">
         <v>0.75</v>
       </c>
-      <c r="G3" s="48" t="n">
+      <c r="G3" s="48">
         <v>1</v>
       </c>
       <c r="H3" s="48"/>
@@ -5349,12 +5466,12 @@
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48" t="n">
-        <f aca="false">SUMIF(C4:L4,A$12,C$3:Z$3)</f>
+      <c r="B4" s="48">
+        <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$12,C$3:Z$3)</f>
         <v>3.5</v>
       </c>
       <c r="C4" s="52" t="s">
@@ -5376,12 +5493,12 @@
       <c r="K4" s="52"/>
       <c r="L4" s="52"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48" t="n">
-        <f aca="false">SUMIF(C5:L5,A$12,C$3:Z$3)</f>
+      <c r="B5" s="48">
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -5403,12 +5520,12 @@
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48" t="n">
-        <f aca="false">SUMIF(C6:L6,A$12,C$3:Z$3)</f>
+      <c r="B6" s="48">
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
       <c r="C6" s="52" t="s">
@@ -5432,12 +5549,12 @@
       <c r="K6" s="52"/>
       <c r="L6" s="52"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="48" t="n">
-        <f aca="false">SUMIF(C7:L7,A$12,C$3:Z$3)</f>
+      <c r="B7" s="48">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="C7" s="52" t="s">
@@ -5459,12 +5576,12 @@
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="48" t="n">
-        <f aca="false">SUMIF(C8:L8,A$12,C$3:Z$3)</f>
+      <c r="B8" s="48">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="C8" s="52" t="s">
@@ -5484,12 +5601,12 @@
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="48" t="n">
-        <f aca="false">SUMIF(C9:L9,A$12,C$3:Z$3)</f>
+      <c r="B9" s="48">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -5509,96 +5626,88 @@
       <c r="K9" s="52"/>
       <c r="L9" s="52"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="48" t="n">
-        <f aca="false">SUM(B4:B9)</f>
+      <c r="B10" s="48">
+        <f>SUM(B4:B9)</f>
         <v>20.5</v>
       </c>
-      <c r="C10" s="48" t="n">
-        <f aca="false">COUNTIF(C4:C9,"*ü*") * C3</f>
+      <c r="C10" s="48">
+        <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>6</v>
       </c>
-      <c r="D10" s="48" t="n">
-        <f aca="false">COUNTIF(D4:D9,"*ü*") * D3</f>
+      <c r="D10" s="48">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E10" s="48" t="n">
-        <f aca="false">COUNTIF(E4:E9,"*ü*") * E3</f>
+      <c r="E10" s="48">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10" s="48" t="n">
-        <f aca="false">COUNTIF(F4:F9,"*ü*") * F3</f>
+      <c r="F10" s="48">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G10" s="48" t="n">
-        <f aca="false">COUNTIF(G4:G9,"*ü*") * G3</f>
+      <c r="G10" s="48">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H10" s="48" t="n">
-        <f aca="false">COUNTIF(H4:H9,"*ü*") * H3</f>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="48" t="n">
-        <f aca="false">COUNTIF(I4:I9,"*ü*") * I3</f>
+      <c r="I10" s="48">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="48" t="n">
-        <f aca="false">COUNTIF(J4:J9,"*ü*") * J3</f>
+      <c r="J10" s="48">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="48" t="n">
-        <f aca="false">COUNTIF(K4:K9,"*ü*") * K3</f>
+      <c r="K10" s="48">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="48" t="n">
-        <f aca="false">COUNTIF(L4:L9,"*ü*") * L3</f>
+      <c r="L10" s="48">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView zoomScale="174" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="5" style="0" width="3.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.83"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="53"/>
       <c r="B1" s="54" t="s">
         <v>63</v>
@@ -5609,63 +5718,63 @@
       <c r="D1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1">
         <v>1</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1">
         <v>3</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1">
         <v>4</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1">
         <v>5</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1">
         <v>6</v>
       </c>
-      <c r="K1" s="0" t="n">
+      <c r="K1">
         <v>7</v>
       </c>
-      <c r="L1" s="0" t="n">
+      <c r="L1">
         <v>8</v>
       </c>
-      <c r="M1" s="0" t="n">
+      <c r="M1">
         <v>9</v>
       </c>
-      <c r="N1" s="0" t="n">
+      <c r="N1">
         <v>10</v>
       </c>
-      <c r="O1" s="0" t="n">
+      <c r="O1">
         <v>11</v>
       </c>
-      <c r="P1" s="0" t="n">
+      <c r="P1">
         <v>12</v>
       </c>
-      <c r="Q1" s="0" t="n">
+      <c r="Q1">
         <v>13</v>
       </c>
-      <c r="R1" s="0" t="n">
+      <c r="R1">
         <v>14</v>
       </c>
-      <c r="S1" s="0" t="n">
+      <c r="S1">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="56" t="n">
+      <c r="C2" s="56">
         <v>0</v>
       </c>
-      <c r="D2" s="57" t="n">
+      <c r="D2" s="57">
         <v>0</v>
       </c>
       <c r="E2" s="6"/>
@@ -5681,15 +5790,15 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="58"/>
       <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="56" t="n">
+      <c r="C3" s="56">
         <v>5</v>
       </c>
-      <c r="D3" s="57" t="n">
+      <c r="D3" s="57">
         <v>5</v>
       </c>
       <c r="E3" s="6"/>
@@ -5705,15 +5814,15 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="59"/>
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="56" t="n">
+      <c r="C4" s="56">
         <v>2</v>
       </c>
-      <c r="D4" s="57" t="n">
+      <c r="D4" s="57">
         <v>1</v>
       </c>
       <c r="E4" s="6"/>
@@ -5731,17 +5840,17 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="59"/>
       <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <f aca="false">SUM(C2:C4)</f>
+      <c r="C5" s="4">
+        <f>SUM(C2:C4)</f>
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">SUM(D2:D4)</f>
+      <c r="D5" s="5">
+        <f>SUM(D2:D4)</f>
         <v>6</v>
       </c>
       <c r="E5" s="6"/>
@@ -5757,17 +5866,17 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="56" t="n">
+      <c r="C6" s="56">
         <v>0</v>
       </c>
-      <c r="D6" s="57" t="n">
+      <c r="D6" s="57">
         <v>0</v>
       </c>
       <c r="E6" s="6"/>
@@ -5783,15 +5892,15 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="58"/>
       <c r="B7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="56" t="n">
+      <c r="C7" s="56">
         <v>5</v>
       </c>
-      <c r="D7" s="57" t="n">
+      <c r="D7" s="57">
         <v>6</v>
       </c>
       <c r="E7" s="6"/>
@@ -5807,15 +5916,15 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="59"/>
       <c r="B8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="56" t="n">
+      <c r="C8" s="56">
         <v>2</v>
       </c>
-      <c r="D8" s="57" t="n">
+      <c r="D8" s="57">
         <v>2</v>
       </c>
       <c r="E8" s="6"/>
@@ -5833,17 +5942,17 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="59"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <f aca="false">SUM(C6:C8)</f>
+      <c r="C9" s="4">
+        <f>SUM(C6:C8)</f>
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <f aca="false">SUM(D6:D8)</f>
+      <c r="D9" s="5">
+        <f>SUM(D6:D8)</f>
         <v>8</v>
       </c>
       <c r="E9" s="6"/>
@@ -5859,17 +5968,17 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="56" t="n">
+      <c r="C10" s="56">
         <v>35</v>
       </c>
-      <c r="D10" s="57" t="n">
+      <c r="D10" s="57">
         <v>56</v>
       </c>
       <c r="E10" s="6"/>
@@ -5885,15 +5994,15 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="58"/>
       <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="56" t="n">
+      <c r="C11" s="56">
         <v>5</v>
       </c>
-      <c r="D11" s="57" t="n">
+      <c r="D11" s="57">
         <v>5</v>
       </c>
       <c r="E11" s="6"/>
@@ -5909,15 +6018,15 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="59"/>
       <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="61" t="n">
+      <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="57" t="n">
+      <c r="D12" s="57">
         <v>1</v>
       </c>
       <c r="E12" s="6"/>
@@ -5935,13 +6044,13 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="59"/>
       <c r="B13" s="62"/>
-      <c r="C13" s="56" t="n">
+      <c r="C13" s="56">
         <v>0</v>
       </c>
-      <c r="D13" s="57" t="n">
+      <c r="D13" s="57">
         <v>0</v>
       </c>
       <c r="E13" s="6"/>
@@ -5957,13 +6066,13 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="62"/>
-      <c r="C14" s="56" t="n">
+      <c r="C14" s="56">
         <v>0</v>
       </c>
-      <c r="D14" s="57" t="n">
+      <c r="D14" s="57">
         <v>0</v>
       </c>
       <c r="E14" s="6"/>
@@ -5979,17 +6088,17 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="59"/>
       <c r="B15" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <f aca="false">SUM(C10:C14)</f>
+      <c r="C15" s="4">
+        <f>SUM(C10:C14)</f>
         <v>42</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">SUM(D10:D14)</f>
+      <c r="D15" s="5">
+        <f>SUM(D10:D14)</f>
         <v>62</v>
       </c>
       <c r="E15" s="6"/>
@@ -6005,17 +6114,17 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="56" t="n">
+      <c r="C16" s="56">
         <v>0</v>
       </c>
-      <c r="D16" s="57" t="n">
+      <c r="D16" s="57">
         <v>0</v>
       </c>
       <c r="E16" s="6"/>
@@ -6031,15 +6140,15 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="58"/>
       <c r="B17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="56" t="n">
+      <c r="C17" s="56">
         <v>5</v>
       </c>
-      <c r="D17" s="57" t="n">
+      <c r="D17" s="57">
         <v>5</v>
       </c>
       <c r="E17" s="6"/>
@@ -6055,15 +6164,15 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
       <c r="B18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="56" t="n">
+      <c r="C18" s="56">
         <v>2</v>
       </c>
-      <c r="D18" s="57" t="n">
+      <c r="D18" s="57">
         <v>0.5</v>
       </c>
       <c r="E18" s="6"/>
@@ -6081,146 +6190,141 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="59"/>
       <c r="B19" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="4" t="n">
-        <f aca="false">SUM(C16:C18)</f>
+      <c r="C19" s="4">
+        <f>SUM(C16:C18)</f>
         <v>7</v>
       </c>
-      <c r="D19" s="5" t="n">
-        <f aca="false">SUM(D16:D18)</f>
+      <c r="D19" s="5">
+        <f>SUM(D16:D18)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="56" t="n">
+      <c r="C20" s="56">
         <v>0</v>
       </c>
-      <c r="D20" s="57" t="n">
+      <c r="D20" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="58"/>
       <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="56" t="n">
+      <c r="C21" s="56">
         <v>5</v>
       </c>
-      <c r="D21" s="57" t="n">
+      <c r="D21" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="59"/>
       <c r="B22" s="4"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="57" t="n">
+      <c r="D22" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="59"/>
       <c r="B23" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="4" t="n">
-        <f aca="false">SUM(C20:C22)</f>
+      <c r="C23" s="4">
+        <f>SUM(C20:C22)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">SUM(D20:D22)</f>
+      <c r="D23" s="5">
+        <f>SUM(D20:D22)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="56" t="n">
+      <c r="C24" s="56">
         <v>0</v>
       </c>
-      <c r="D24" s="57" t="n">
+      <c r="D24" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="58"/>
       <c r="B25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="56" t="n">
+      <c r="C25" s="56">
         <v>5</v>
       </c>
-      <c r="D25" s="57" t="n">
+      <c r="D25" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="59"/>
       <c r="B26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="56" t="n">
+      <c r="C26" s="56">
         <v>2</v>
       </c>
-      <c r="D26" s="57" t="n">
+      <c r="D26" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="59"/>
       <c r="B27" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="4" t="n">
-        <f aca="false">SUM(C24:C26)</f>
+      <c r="C27" s="4">
+        <f>SUM(C24:C26)</f>
         <v>7</v>
       </c>
-      <c r="D27" s="5" t="n">
-        <f aca="false">SUM(D24:D26)</f>
+      <c r="D27" s="5">
+        <f>SUM(D24:D26)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="64"/>
       <c r="B28" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="8" t="n">
-        <f aca="false">SUM(C5,C9,C15,C19,C23,C27)</f>
+      <c r="C28" s="8">
+        <f>SUM(C5,C9,C15,C19,C23,C27)</f>
         <v>75</v>
       </c>
-      <c r="D28" s="9" t="n">
-        <f aca="false">SUM(D5,D9,D15,D19,D23,D27)</f>
+      <c r="D28" s="9">
+        <f>SUM(D5,D9,D15,D19,D23,D27)</f>
         <v>92.5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B29" s="66" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/doc/DeepPurple_Gaant.xlsx
+++ b/doc/DeepPurple_Gaant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Documents/CS Software Engineering/DeepPurple/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\GitHub\DeepPurple\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CFD80-2FB7-9143-BD53-CED696257A27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1FB065-0916-4F58-B720-2F0C525B1F15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -596,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -616,14 +615,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,51 +1011,51 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="1" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="2.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" customWidth="1"/>
+    <col min="18" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C2" s="67" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="K2" s="67" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="O2" s="67" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="O2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>0</v>
       </c>
@@ -1490,21 +1489,21 @@
   <dimension ref="A1:DE57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV41" sqref="AV41:AW41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="106" width="3.83203125" customWidth="1"/>
-    <col min="107" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="106" width="3.81640625" customWidth="1"/>
+    <col min="107" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1732,7 +1731,7 @@
       <c r="AL3" s="30"/>
       <c r="AM3" s="30"/>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1773,7 +1772,7 @@
       <c r="AS4" s="30"/>
       <c r="AT4" s="30"/>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1816,7 +1815,7 @@
       <c r="BB5" s="30"/>
       <c r="BC5" s="30"/>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +1851,7 @@
       <c r="BD6" s="30"/>
       <c r="BE6" s="30"/>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1894,7 +1893,7 @@
       <c r="BL7" s="30"/>
       <c r="BM7" s="30"/>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1936,7 +1935,7 @@
       <c r="CF8" s="66"/>
       <c r="CG8" s="66"/>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1982,7 +1981,7 @@
       <c r="BX9" s="30"/>
       <c r="BY9" s="30"/>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2026,7 +2025,7 @@
       <c r="CP10" s="66"/>
       <c r="CQ10" s="66"/>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2068,7 +2067,7 @@
       <c r="AH11" s="32"/>
       <c r="AI11" s="32"/>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>29</v>
       </c>
@@ -2104,7 +2103,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
         <v>8</v>
       </c>
@@ -2138,7 +2137,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2172,7 +2171,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2207,7 +2206,7 @@
       <c r="AA15" s="30"/>
       <c r="AB15" s="30"/>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2243,54 +2242,54 @@
       <c r="AA16" s="5"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="71"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="72"/>
-      <c r="BG16" s="72"/>
-      <c r="BH16" s="72"/>
-      <c r="BI16" s="72"/>
-      <c r="BJ16" s="72"/>
-      <c r="BK16" s="72"/>
-      <c r="BL16" s="72"/>
-      <c r="BM16" s="72"/>
-      <c r="BN16" s="72"/>
-      <c r="BO16" s="72"/>
-      <c r="BP16" s="72"/>
-      <c r="BQ16" s="72"/>
-      <c r="BR16" s="72"/>
-      <c r="BS16" s="72"/>
-      <c r="BT16" s="72"/>
-      <c r="BU16" s="72"/>
-      <c r="BV16" s="72"/>
-      <c r="BW16" s="72"/>
-      <c r="BX16" s="72"/>
-    </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="70"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="70"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="71"/>
+      <c r="BA16" s="71"/>
+      <c r="BB16" s="71"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="71"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="71"/>
+      <c r="BG16" s="71"/>
+      <c r="BH16" s="71"/>
+      <c r="BI16" s="71"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="71"/>
+      <c r="BL16" s="71"/>
+      <c r="BM16" s="71"/>
+      <c r="BN16" s="71"/>
+      <c r="BO16" s="71"/>
+      <c r="BP16" s="71"/>
+      <c r="BQ16" s="71"/>
+      <c r="BR16" s="71"/>
+      <c r="BS16" s="71"/>
+      <c r="BT16" s="71"/>
+      <c r="BU16" s="71"/>
+      <c r="BV16" s="71"/>
+      <c r="BW16" s="71"/>
+      <c r="BX16" s="71"/>
+    </row>
+    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2323,19 +2322,19 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BY17" s="68"/>
-      <c r="BZ17" s="68"/>
-      <c r="CA17" s="68"/>
-      <c r="CB17" s="68"/>
-      <c r="CC17" s="68"/>
-    </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BY17" s="67"/>
+      <c r="BZ17" s="67"/>
+      <c r="CA17" s="67"/>
+      <c r="CB17" s="67"/>
+      <c r="CC17" s="67"/>
+    </row>
+    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2368,28 +2367,28 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="69"/>
-      <c r="BH18" s="69"/>
-      <c r="BI18" s="69"/>
-      <c r="BJ18" s="69"/>
-      <c r="BK18" s="69"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="BO18" s="69"/>
-      <c r="BP18" s="69"/>
-      <c r="BQ18" s="69"/>
-      <c r="BR18" s="69"/>
-      <c r="CP18" s="70"/>
-      <c r="CQ18" s="70"/>
-      <c r="CR18" s="70"/>
-    </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="68"/>
+      <c r="BJ18" s="68"/>
+      <c r="BK18" s="68"/>
+      <c r="BL18" s="68"/>
+      <c r="BM18" s="68"/>
+      <c r="BN18" s="68"/>
+      <c r="BO18" s="68"/>
+      <c r="BP18" s="68"/>
+      <c r="BQ18" s="68"/>
+      <c r="BR18" s="68"/>
+      <c r="CP18" s="69"/>
+      <c r="CQ18" s="69"/>
+      <c r="CR18" s="69"/>
+    </row>
+    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2422,37 +2421,37 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="BC19" s="69"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="69"/>
-      <c r="BF19" s="69"/>
-      <c r="BG19" s="69"/>
-      <c r="BH19" s="69"/>
-      <c r="BI19" s="69"/>
-      <c r="BJ19" s="69"/>
-      <c r="BK19" s="69"/>
-      <c r="BL19" s="69"/>
-      <c r="BM19" s="69"/>
-      <c r="BN19" s="69"/>
-      <c r="BO19" s="69"/>
-      <c r="BP19" s="69"/>
-      <c r="BQ19" s="69"/>
-      <c r="BR19" s="69"/>
-      <c r="CS19" s="68"/>
-      <c r="CT19" s="68"/>
-      <c r="CU19" s="68"/>
-      <c r="CV19" s="68"/>
-      <c r="CW19" s="70"/>
-      <c r="CX19" s="70"/>
-      <c r="CY19" s="70"/>
-      <c r="CZ19" s="70"/>
-      <c r="DA19" s="70"/>
-      <c r="DB19" s="70"/>
-      <c r="DC19" s="70"/>
-      <c r="DD19" s="70"/>
-      <c r="DE19" s="70"/>
-    </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="68"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="68"/>
+      <c r="BO19" s="68"/>
+      <c r="BP19" s="68"/>
+      <c r="BQ19" s="68"/>
+      <c r="BR19" s="68"/>
+      <c r="CS19" s="67"/>
+      <c r="CT19" s="67"/>
+      <c r="CU19" s="67"/>
+      <c r="CV19" s="67"/>
+      <c r="CW19" s="69"/>
+      <c r="CX19" s="69"/>
+      <c r="CY19" s="69"/>
+      <c r="CZ19" s="69"/>
+      <c r="DA19" s="69"/>
+      <c r="DB19" s="69"/>
+      <c r="DC19" s="69"/>
+      <c r="DD19" s="69"/>
+      <c r="DE19" s="69"/>
+    </row>
+    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2485,9 +2484,9 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AE20" s="68"/>
-    </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="AE20" s="67"/>
+    </row>
+    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2520,25 +2519,25 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="BY21" s="69"/>
-      <c r="BZ21" s="69"/>
-      <c r="CA21" s="69"/>
-      <c r="CB21" s="69"/>
-      <c r="CC21" s="69"/>
-      <c r="CD21" s="68"/>
-      <c r="CE21" s="68"/>
-      <c r="CF21" s="68"/>
-      <c r="CG21" s="68"/>
-      <c r="CH21" s="68"/>
-      <c r="CI21" s="68"/>
-      <c r="CJ21" s="68"/>
-      <c r="CK21" s="68"/>
-      <c r="CL21" s="68"/>
-      <c r="CM21" s="68"/>
-      <c r="CN21" s="68"/>
-      <c r="CO21" s="68"/>
-    </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="BY21" s="68"/>
+      <c r="BZ21" s="68"/>
+      <c r="CA21" s="68"/>
+      <c r="CB21" s="68"/>
+      <c r="CC21" s="68"/>
+      <c r="CD21" s="67"/>
+      <c r="CE21" s="67"/>
+      <c r="CF21" s="67"/>
+      <c r="CG21" s="67"/>
+      <c r="CH21" s="67"/>
+      <c r="CI21" s="67"/>
+      <c r="CJ21" s="67"/>
+      <c r="CK21" s="67"/>
+      <c r="CL21" s="67"/>
+      <c r="CM21" s="67"/>
+      <c r="CN21" s="67"/>
+      <c r="CO21" s="67"/>
+    </row>
+    <row r="22" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>29</v>
       </c>
@@ -2574,7 +2573,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
         <v>9</v>
       </c>
@@ -2602,7 +2601,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
         <v>33</v>
       </c>
@@ -2715,7 +2714,7 @@
       <c r="CZ24" s="37"/>
       <c r="DA24" s="37"/>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
         <v>34</v>
       </c>
@@ -2828,7 +2827,7 @@
       <c r="CZ25" s="37"/>
       <c r="DA25" s="37"/>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
         <v>35</v>
       </c>
@@ -2941,7 +2940,7 @@
       <c r="CZ26" s="37"/>
       <c r="DA26" s="37"/>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A27" s="37" t="s">
         <v>36</v>
       </c>
@@ -3054,7 +3053,7 @@
       <c r="CZ27" s="37"/>
       <c r="DA27" s="37"/>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
         <v>32</v>
       </c>
@@ -3167,7 +3166,7 @@
       <c r="CZ28" s="37"/>
       <c r="DA28" s="37"/>
     </row>
-    <row r="29" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
@@ -3280,7 +3279,7 @@
       <c r="CZ29" s="37"/>
       <c r="DA29" s="37"/>
     </row>
-    <row r="30" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>29</v>
       </c>
@@ -3316,7 +3315,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A31" s="36" t="s">
         <v>10</v>
       </c>
@@ -3350,7 +3349,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A32" s="37" t="s">
         <v>33</v>
       </c>
@@ -3463,7 +3462,7 @@
       <c r="CZ32" s="37"/>
       <c r="DA32" s="37"/>
     </row>
-    <row r="33" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A33" s="37" t="s">
         <v>37</v>
       </c>
@@ -3576,7 +3575,7 @@
       <c r="CZ33" s="37"/>
       <c r="DA33" s="37"/>
     </row>
-    <row r="34" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
         <v>38</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="CZ34" s="37"/>
       <c r="DA34" s="37"/>
     </row>
-    <row r="35" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A35" s="37" t="s">
         <v>39</v>
       </c>
@@ -3802,7 +3801,7 @@
       <c r="CZ35" s="37"/>
       <c r="DA35" s="37"/>
     </row>
-    <row r="36" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A36" s="37" t="s">
         <v>40</v>
       </c>
@@ -3915,7 +3914,7 @@
       <c r="CZ36" s="37"/>
       <c r="DA36" s="37"/>
     </row>
-    <row r="37" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A37" s="37" t="s">
         <v>41</v>
       </c>
@@ -4028,7 +4027,7 @@
       <c r="CZ37" s="37"/>
       <c r="DA37" s="37"/>
     </row>
-    <row r="38" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
         <v>29</v>
       </c>
@@ -4064,7 +4063,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>11</v>
       </c>
@@ -4098,7 +4097,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A40" s="37" t="s">
         <v>42</v>
       </c>
@@ -4211,7 +4210,7 @@
       <c r="CZ40" s="37"/>
       <c r="DA40" s="37"/>
     </row>
-    <row r="41" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A41" s="37" t="s">
         <v>43</v>
       </c>
@@ -4268,9 +4267,9 @@
       <c r="AV41" s="38"/>
       <c r="AW41" s="38"/>
       <c r="AX41" s="38"/>
-      <c r="AY41" s="37"/>
-      <c r="AZ41" s="37"/>
-      <c r="BA41" s="37"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
       <c r="BB41" s="37"/>
       <c r="BC41" s="37"/>
       <c r="BD41" s="37"/>
@@ -4324,7 +4323,7 @@
       <c r="CZ41" s="37"/>
       <c r="DA41" s="37"/>
     </row>
-    <row r="42" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A42" s="37" t="s">
         <v>44</v>
       </c>
@@ -4437,7 +4436,7 @@
       <c r="CZ42" s="37"/>
       <c r="DA42" s="37"/>
     </row>
-    <row r="43" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A43" s="37" t="s">
         <v>32</v>
       </c>
@@ -4550,7 +4549,7 @@
       <c r="CZ43" s="37"/>
       <c r="DA43" s="37"/>
     </row>
-    <row r="44" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A44" s="37" t="s">
         <v>27</v>
       </c>
@@ -4663,7 +4662,7 @@
       <c r="CZ44" s="37"/>
       <c r="DA44" s="37"/>
     </row>
-    <row r="45" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A45" s="37" t="s">
         <v>45</v>
       </c>
@@ -4776,7 +4775,7 @@
       <c r="CZ45" s="37"/>
       <c r="DA45" s="37"/>
     </row>
-    <row r="46" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A46" s="37" t="s">
         <v>46</v>
       </c>
@@ -4889,7 +4888,7 @@
       <c r="CZ46" s="37"/>
       <c r="DA46" s="37"/>
     </row>
-    <row r="47" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>29</v>
       </c>
@@ -4924,7 +4923,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A48" s="36" t="s">
         <v>12</v>
       </c>
@@ -4957,7 +4956,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
         <v>42</v>
       </c>
@@ -5025,7 +5024,7 @@
       <c r="BG49" s="37"/>
       <c r="BH49" s="37"/>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A50" s="37" t="s">
         <v>47</v>
       </c>
@@ -5093,7 +5092,7 @@
       <c r="BG50" s="37"/>
       <c r="BH50" s="37"/>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A51" s="37" t="s">
         <v>48</v>
       </c>
@@ -5161,7 +5160,7 @@
       <c r="BG51" s="37"/>
       <c r="BH51" s="37"/>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A52" s="37" t="s">
         <v>32</v>
       </c>
@@ -5229,7 +5228,7 @@
       <c r="BG52" s="37"/>
       <c r="BH52" s="37"/>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A53" s="37" t="s">
         <v>49</v>
       </c>
@@ -5297,7 +5296,7 @@
       <c r="BG53" s="37"/>
       <c r="BH53" s="37"/>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A54" s="37" t="s">
         <v>50</v>
       </c>
@@ -5365,7 +5364,7 @@
       <c r="BG54" s="37"/>
       <c r="BH54" s="37"/>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A55" s="37" t="s">
         <v>51</v>
       </c>
@@ -5433,7 +5432,7 @@
       <c r="BG55" s="37"/>
       <c r="BH55" s="37"/>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A56" s="37" t="s">
         <v>46</v>
       </c>
@@ -5501,7 +5500,7 @@
       <c r="BG56" s="40"/>
       <c r="BH56" s="37"/>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A57" s="35" t="s">
         <v>29</v>
       </c>
@@ -5528,12 +5527,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="47" t="s">
         <v>52</v>
       </c>
@@ -5550,7 +5549,7 @@
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="47" t="s">
         <v>53</v>
       </c>
@@ -5575,7 +5574,7 @@
       <c r="K2" s="50"/>
       <c r="L2" s="50"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="47" t="s">
         <v>59</v>
       </c>
@@ -5600,7 +5599,7 @@
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
@@ -5627,7 +5626,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="51"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>8</v>
       </c>
@@ -5654,7 +5653,7 @@
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>9</v>
       </c>
@@ -5683,7 +5682,7 @@
       <c r="K6" s="51"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
@@ -5710,7 +5709,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
         <v>11</v>
       </c>
@@ -5735,7 +5734,7 @@
       <c r="K8" s="51"/>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
         <v>61</v>
       </c>
@@ -5760,7 +5759,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="51"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="47" t="s">
         <v>0</v>
       </c>
@@ -5809,10 +5808,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="51" t="s">
         <v>60</v>
       </c>
@@ -5831,17 +5830,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="19" width="3.6328125" customWidth="1"/>
+    <col min="20" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="52"/>
       <c r="B1" s="53" t="s">
         <v>62</v>
@@ -5898,7 +5897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -5924,7 +5923,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
       <c r="B3" s="3" t="s">
         <v>66</v>
@@ -5948,7 +5947,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="58"/>
       <c r="B4" s="3" t="s">
         <v>67</v>
@@ -5974,7 +5973,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="58"/>
       <c r="B5" s="3" t="s">
         <v>69</v>
@@ -6000,7 +5999,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -6026,7 +6025,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="57"/>
       <c r="B7" s="3" t="s">
         <v>66</v>
@@ -6050,7 +6049,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="58"/>
       <c r="B8" s="3" t="s">
         <v>70</v>
@@ -6076,7 +6075,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="58"/>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -6102,7 +6101,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -6128,7 +6127,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="57"/>
       <c r="B11" s="3" t="s">
         <v>66</v>
@@ -6152,7 +6151,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="3" t="s">
         <v>71</v>
@@ -6178,7 +6177,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="61"/>
       <c r="C13" s="55">
@@ -6200,7 +6199,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="58"/>
       <c r="B14" s="61"/>
       <c r="C14" s="55">
@@ -6222,7 +6221,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="62" t="s">
         <v>69</v>
@@ -6248,7 +6247,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -6274,7 +6273,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="57"/>
       <c r="B17" s="3" t="s">
         <v>66</v>
@@ -6298,7 +6297,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="58"/>
       <c r="B18" s="3" t="s">
         <v>72</v>
@@ -6324,7 +6323,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="58"/>
       <c r="B19" s="62" t="s">
         <v>69</v>
@@ -6338,7 +6337,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="57"/>
       <c r="B21" s="3" t="s">
         <v>66</v>
@@ -6364,7 +6363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="58"/>
       <c r="B22" s="3"/>
       <c r="C22" s="55"/>
@@ -6372,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="58"/>
       <c r="B23" s="62" t="s">
         <v>69</v>
@@ -6386,7 +6385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="57"/>
       <c r="B25" s="3" t="s">
         <v>66</v>
@@ -6412,7 +6411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="58"/>
       <c r="B26" s="3" t="s">
         <v>73</v>
@@ -6424,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="58"/>
       <c r="B27" s="62" t="s">
         <v>69</v>
@@ -6438,7 +6437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="63"/>
       <c r="B28" s="64" t="s">
         <v>0</v>
@@ -6452,7 +6451,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B29" s="65" t="s">
         <v>74</v>
       </c>

--- a/doc/DeepPurple_Gaant.xlsx
+++ b/doc/DeepPurple_Gaant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\GitHub\DeepPurple\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1FB065-0916-4F58-B720-2F0C525B1F15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D4F2D-0443-4B23-95E4-0B5ADD0B0B9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,7 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1033,27 +1032,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="K2" s="72" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="K2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="O2" s="72" t="s">
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="O2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
@@ -1320,11 +1319,11 @@
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>-600</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="13">
@@ -1333,11 +1332,11 @@
       </c>
       <c r="H8" s="14">
         <f>Gantt!C47*100</f>
-        <v>2300</v>
+        <v>3900</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>-1500</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="3"/>
@@ -1428,11 +1427,11 @@
       </c>
       <c r="D10" s="21">
         <f>SUM(D4:D9)</f>
-        <v>31200</v>
+        <v>32800</v>
       </c>
       <c r="E10" s="22">
         <f>SUM(E4:E9)</f>
-        <v>50</v>
+        <v>-1550</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="23">
@@ -1441,11 +1440,11 @@
       </c>
       <c r="H10" s="24">
         <f>SUM(H4:H9)</f>
-        <v>20900</v>
+        <v>22500</v>
       </c>
       <c r="I10" s="25">
         <f>SUM(I4:I9)</f>
-        <v>-2350</v>
+        <v>-3950</v>
       </c>
       <c r="K10" s="23">
         <f>SUM(K4:K9)</f>
@@ -1488,9 +1487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV41" sqref="AV41:AW41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN47" sqref="AN47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,14 +1925,14 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="BZ8" s="66"/>
-      <c r="CA8" s="66"/>
-      <c r="CB8" s="66"/>
-      <c r="CC8" s="66"/>
-      <c r="CD8" s="66"/>
-      <c r="CE8" s="66"/>
-      <c r="CF8" s="66"/>
-      <c r="CG8" s="66"/>
+      <c r="BZ8" s="65"/>
+      <c r="CA8" s="65"/>
+      <c r="CB8" s="65"/>
+      <c r="CC8" s="65"/>
+      <c r="CD8" s="65"/>
+      <c r="CE8" s="65"/>
+      <c r="CF8" s="65"/>
+      <c r="CG8" s="65"/>
     </row>
     <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -2014,16 +2013,16 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="CH10" s="66"/>
-      <c r="CI10" s="66"/>
-      <c r="CJ10" s="66"/>
-      <c r="CK10" s="66"/>
-      <c r="CL10" s="66"/>
-      <c r="CM10" s="66"/>
-      <c r="CN10" s="66"/>
-      <c r="CO10" s="66"/>
-      <c r="CP10" s="66"/>
-      <c r="CQ10" s="66"/>
+      <c r="CH10" s="65"/>
+      <c r="CI10" s="65"/>
+      <c r="CJ10" s="65"/>
+      <c r="CK10" s="65"/>
+      <c r="CL10" s="65"/>
+      <c r="CM10" s="65"/>
+      <c r="CN10" s="65"/>
+      <c r="CO10" s="65"/>
+      <c r="CP10" s="65"/>
+      <c r="CQ10" s="65"/>
     </row>
     <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -2242,52 +2241,52 @@
       <c r="AA16" s="5"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="70"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="70"/>
-      <c r="AM16" s="70"/>
-      <c r="AN16" s="70"/>
-      <c r="AO16" s="70"/>
-      <c r="AP16" s="70"/>
-      <c r="AQ16" s="70"/>
-      <c r="AR16" s="70"/>
-      <c r="AS16" s="70"/>
-      <c r="AT16" s="70"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="70"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="71"/>
-      <c r="BA16" s="71"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="71"/>
-      <c r="BE16" s="71"/>
-      <c r="BF16" s="71"/>
-      <c r="BG16" s="71"/>
-      <c r="BH16" s="71"/>
-      <c r="BI16" s="71"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="71"/>
-      <c r="BL16" s="71"/>
-      <c r="BM16" s="71"/>
-      <c r="BN16" s="71"/>
-      <c r="BO16" s="71"/>
-      <c r="BP16" s="71"/>
-      <c r="BQ16" s="71"/>
-      <c r="BR16" s="71"/>
-      <c r="BS16" s="71"/>
-      <c r="BT16" s="71"/>
-      <c r="BU16" s="71"/>
-      <c r="BV16" s="71"/>
-      <c r="BW16" s="71"/>
-      <c r="BX16" s="71"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
+      <c r="BC16" s="70"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="70"/>
+      <c r="BF16" s="70"/>
+      <c r="BG16" s="70"/>
+      <c r="BH16" s="70"/>
+      <c r="BI16" s="70"/>
+      <c r="BJ16" s="70"/>
+      <c r="BK16" s="70"/>
+      <c r="BL16" s="70"/>
+      <c r="BM16" s="70"/>
+      <c r="BN16" s="70"/>
+      <c r="BO16" s="70"/>
+      <c r="BP16" s="70"/>
+      <c r="BQ16" s="70"/>
+      <c r="BR16" s="70"/>
+      <c r="BS16" s="70"/>
+      <c r="BT16" s="70"/>
+      <c r="BU16" s="70"/>
+      <c r="BV16" s="70"/>
+      <c r="BW16" s="70"/>
+      <c r="BX16" s="70"/>
     </row>
     <row r="17" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -2322,17 +2321,17 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BY17" s="67"/>
-      <c r="BZ17" s="67"/>
-      <c r="CA17" s="67"/>
-      <c r="CB17" s="67"/>
-      <c r="CC17" s="67"/>
+      <c r="AW17" s="67"/>
+      <c r="AX17" s="67"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="67"/>
+      <c r="BA17" s="67"/>
+      <c r="BB17" s="67"/>
+      <c r="BY17" s="66"/>
+      <c r="BZ17" s="66"/>
+      <c r="CA17" s="66"/>
+      <c r="CB17" s="66"/>
+      <c r="CC17" s="66"/>
     </row>
     <row r="18" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -2367,26 +2366,26 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="68"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="68"/>
-      <c r="BJ18" s="68"/>
-      <c r="BK18" s="68"/>
-      <c r="BL18" s="68"/>
-      <c r="BM18" s="68"/>
-      <c r="BN18" s="68"/>
-      <c r="BO18" s="68"/>
-      <c r="BP18" s="68"/>
-      <c r="BQ18" s="68"/>
-      <c r="BR18" s="68"/>
-      <c r="CP18" s="69"/>
-      <c r="CQ18" s="69"/>
-      <c r="CR18" s="69"/>
+      <c r="BB18" s="67"/>
+      <c r="BC18" s="67"/>
+      <c r="BD18" s="67"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="67"/>
+      <c r="BG18" s="67"/>
+      <c r="BH18" s="67"/>
+      <c r="BI18" s="67"/>
+      <c r="BJ18" s="67"/>
+      <c r="BK18" s="67"/>
+      <c r="BL18" s="67"/>
+      <c r="BM18" s="67"/>
+      <c r="BN18" s="67"/>
+      <c r="BO18" s="67"/>
+      <c r="BP18" s="67"/>
+      <c r="BQ18" s="67"/>
+      <c r="BR18" s="67"/>
+      <c r="CP18" s="68"/>
+      <c r="CQ18" s="68"/>
+      <c r="CR18" s="68"/>
     </row>
     <row r="19" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -2421,35 +2420,35 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="68"/>
-      <c r="BJ19" s="68"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="68"/>
-      <c r="BO19" s="68"/>
-      <c r="BP19" s="68"/>
-      <c r="BQ19" s="68"/>
-      <c r="BR19" s="68"/>
-      <c r="CS19" s="67"/>
-      <c r="CT19" s="67"/>
-      <c r="CU19" s="67"/>
-      <c r="CV19" s="67"/>
-      <c r="CW19" s="69"/>
-      <c r="CX19" s="69"/>
-      <c r="CY19" s="69"/>
-      <c r="CZ19" s="69"/>
-      <c r="DA19" s="69"/>
-      <c r="DB19" s="69"/>
-      <c r="DC19" s="69"/>
-      <c r="DD19" s="69"/>
-      <c r="DE19" s="69"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="67"/>
+      <c r="BI19" s="67"/>
+      <c r="BJ19" s="67"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="67"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="67"/>
+      <c r="BP19" s="67"/>
+      <c r="BQ19" s="67"/>
+      <c r="BR19" s="67"/>
+      <c r="CS19" s="66"/>
+      <c r="CT19" s="66"/>
+      <c r="CU19" s="66"/>
+      <c r="CV19" s="66"/>
+      <c r="CW19" s="68"/>
+      <c r="CX19" s="68"/>
+      <c r="CY19" s="68"/>
+      <c r="CZ19" s="68"/>
+      <c r="DA19" s="68"/>
+      <c r="DB19" s="68"/>
+      <c r="DC19" s="68"/>
+      <c r="DD19" s="68"/>
+      <c r="DE19" s="68"/>
     </row>
     <row r="20" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -2484,7 +2483,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AE20" s="67"/>
+      <c r="AE20" s="66"/>
     </row>
     <row r="21" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -2519,23 +2518,23 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="BY21" s="68"/>
-      <c r="BZ21" s="68"/>
-      <c r="CA21" s="68"/>
-      <c r="CB21" s="68"/>
-      <c r="CC21" s="68"/>
-      <c r="CD21" s="67"/>
-      <c r="CE21" s="67"/>
-      <c r="CF21" s="67"/>
-      <c r="CG21" s="67"/>
-      <c r="CH21" s="67"/>
-      <c r="CI21" s="67"/>
-      <c r="CJ21" s="67"/>
-      <c r="CK21" s="67"/>
-      <c r="CL21" s="67"/>
-      <c r="CM21" s="67"/>
-      <c r="CN21" s="67"/>
-      <c r="CO21" s="67"/>
+      <c r="BY21" s="67"/>
+      <c r="BZ21" s="67"/>
+      <c r="CA21" s="67"/>
+      <c r="CB21" s="67"/>
+      <c r="CC21" s="67"/>
+      <c r="CD21" s="66"/>
+      <c r="CE21" s="66"/>
+      <c r="CF21" s="66"/>
+      <c r="CG21" s="66"/>
+      <c r="CH21" s="66"/>
+      <c r="CI21" s="66"/>
+      <c r="CJ21" s="66"/>
+      <c r="CK21" s="66"/>
+      <c r="CL21" s="66"/>
+      <c r="CM21" s="66"/>
+      <c r="CN21" s="66"/>
+      <c r="CO21" s="66"/>
     </row>
     <row r="22" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
@@ -4331,7 +4330,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
@@ -4380,25 +4379,25 @@
       <c r="AV42" s="37"/>
       <c r="AW42" s="37"/>
       <c r="AX42" s="37"/>
-      <c r="AY42" s="43"/>
-      <c r="AZ42" s="43"/>
-      <c r="BA42" s="43"/>
-      <c r="BB42" s="43"/>
-      <c r="BC42" s="43"/>
-      <c r="BD42" s="43"/>
-      <c r="BE42" s="43"/>
-      <c r="BF42" s="43"/>
-      <c r="BG42" s="43"/>
-      <c r="BH42" s="43"/>
-      <c r="BI42" s="43"/>
-      <c r="BJ42" s="43"/>
-      <c r="BK42" s="37"/>
-      <c r="BL42" s="37"/>
-      <c r="BM42" s="37"/>
-      <c r="BN42" s="37"/>
-      <c r="BO42" s="37"/>
-      <c r="BP42" s="37"/>
-      <c r="BQ42" s="37"/>
+      <c r="AY42" s="26"/>
+      <c r="AZ42" s="26"/>
+      <c r="BA42" s="26"/>
+      <c r="BB42" s="26"/>
+      <c r="BC42" s="26"/>
+      <c r="BD42" s="26"/>
+      <c r="BE42" s="26"/>
+      <c r="BF42" s="26"/>
+      <c r="BG42" s="26"/>
+      <c r="BH42" s="26"/>
+      <c r="BI42" s="26"/>
+      <c r="BJ42" s="26"/>
+      <c r="BK42" s="26"/>
+      <c r="BL42" s="26"/>
+      <c r="BM42" s="26"/>
+      <c r="BN42" s="26"/>
+      <c r="BO42" s="26"/>
+      <c r="BP42" s="26"/>
+      <c r="BQ42" s="26"/>
       <c r="BR42" s="37"/>
       <c r="BS42" s="37"/>
       <c r="BT42" s="37"/>
@@ -4444,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
@@ -4505,20 +4504,13 @@
       <c r="BH43" s="37"/>
       <c r="BI43" s="37"/>
       <c r="BJ43" s="37"/>
-      <c r="BK43" s="43"/>
-      <c r="BL43" s="43"/>
-      <c r="BM43" s="43"/>
-      <c r="BN43" s="43"/>
-      <c r="BO43" s="43"/>
-      <c r="BP43" s="43"/>
       <c r="BQ43" s="37"/>
-      <c r="BR43" s="37"/>
-      <c r="BS43" s="37"/>
+      <c r="BR43" s="26"/>
+      <c r="BS43" s="26"/>
       <c r="BT43" s="37"/>
       <c r="BU43" s="37"/>
       <c r="BV43" s="37"/>
       <c r="BW43" s="37"/>
-      <c r="BX43" s="37"/>
       <c r="BY43" s="37"/>
       <c r="BZ43" s="37"/>
       <c r="CA43" s="37"/>
@@ -4557,7 +4549,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -4624,13 +4616,13 @@
       <c r="BN44" s="37"/>
       <c r="BO44" s="37"/>
       <c r="BP44" s="37"/>
-      <c r="BQ44" s="43"/>
-      <c r="BR44" s="43"/>
-      <c r="BS44" s="43"/>
-      <c r="BT44" s="43"/>
-      <c r="BU44" s="43"/>
-      <c r="BV44" s="43"/>
-      <c r="BW44" s="37"/>
+      <c r="BQ44" s="37"/>
+      <c r="BR44" s="26"/>
+      <c r="BS44" s="26"/>
+      <c r="BT44" s="26"/>
+      <c r="BU44" s="26"/>
+      <c r="BV44" s="26"/>
+      <c r="BW44" s="26"/>
       <c r="BX44" s="37"/>
       <c r="BY44" s="37"/>
       <c r="BZ44" s="37"/>
@@ -4670,7 +4662,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -4743,12 +4735,12 @@
       <c r="BT45" s="37"/>
       <c r="BU45" s="37"/>
       <c r="BV45" s="37"/>
-      <c r="BW45" s="43"/>
-      <c r="BX45" s="43"/>
-      <c r="BY45" s="43"/>
-      <c r="BZ45" s="43"/>
-      <c r="CA45" s="43"/>
-      <c r="CB45" s="43"/>
+      <c r="BW45" s="37"/>
+      <c r="BX45" s="26"/>
+      <c r="BY45" s="26"/>
+      <c r="BZ45" s="37"/>
+      <c r="CA45" s="37"/>
+      <c r="CB45" s="37"/>
       <c r="CC45" s="37"/>
       <c r="CD45" s="37"/>
       <c r="CE45" s="37"/>
@@ -4783,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
@@ -4859,15 +4851,15 @@
       <c r="BW46" s="37"/>
       <c r="BX46" s="37"/>
       <c r="BY46" s="37"/>
-      <c r="BZ46" s="37"/>
-      <c r="CA46" s="37"/>
+      <c r="BZ46" s="26"/>
+      <c r="CA46" s="26"/>
       <c r="CB46" s="37"/>
-      <c r="CC46" s="43"/>
-      <c r="CD46" s="43"/>
-      <c r="CE46" s="43"/>
-      <c r="CF46" s="43"/>
-      <c r="CG46" s="43"/>
-      <c r="CH46" s="43"/>
+      <c r="CC46" s="37"/>
+      <c r="CD46" s="37"/>
+      <c r="CE46" s="37"/>
+      <c r="CF46" s="37"/>
+      <c r="CG46" s="37"/>
+      <c r="CH46" s="37"/>
       <c r="CI46" s="37"/>
       <c r="CJ46" s="37"/>
       <c r="CK46" s="37"/>
@@ -4898,7 +4890,7 @@
       </c>
       <c r="C47">
         <f>SUM(C40:C46)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E47" s="5"/>
       <c r="G47" s="5"/>
@@ -5167,7 +5159,7 @@
       <c r="B52" s="37">
         <v>1</v>
       </c>
-      <c r="C52" s="44">
+      <c r="C52" s="43">
         <v>2</v>
       </c>
       <c r="D52" s="37"/>
@@ -5192,7 +5184,7 @@
       <c r="W52" s="37"/>
       <c r="X52" s="37"/>
       <c r="Y52" s="38"/>
-      <c r="Z52" s="45"/>
+      <c r="Z52" s="44"/>
       <c r="AA52" s="40"/>
       <c r="AB52" s="40"/>
       <c r="AC52" s="37"/>
@@ -5303,7 +5295,7 @@
       <c r="B54" s="37">
         <v>2</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="43">
         <v>2</v>
       </c>
       <c r="D54" s="37"/>
@@ -5339,8 +5331,8 @@
       <c r="AH54" s="37"/>
       <c r="AI54" s="38"/>
       <c r="AJ54" s="38"/>
-      <c r="AK54" s="46"/>
-      <c r="AL54" s="46"/>
+      <c r="AK54" s="45"/>
+      <c r="AL54" s="45"/>
       <c r="AM54" s="37"/>
       <c r="AN54" s="37"/>
       <c r="AO54" s="37"/>
@@ -5371,7 +5363,7 @@
       <c r="B55" s="37">
         <v>5</v>
       </c>
-      <c r="C55" s="44">
+      <c r="C55" s="43">
         <v>6</v>
       </c>
       <c r="D55" s="37"/>
@@ -5417,8 +5409,8 @@
       <c r="AR55" s="38"/>
       <c r="AS55" s="38"/>
       <c r="AT55" s="38"/>
-      <c r="AU55" s="45"/>
-      <c r="AV55" s="45"/>
+      <c r="AU55" s="44"/>
+      <c r="AV55" s="44"/>
       <c r="AW55" s="37"/>
       <c r="AX55" s="37"/>
       <c r="AY55" s="37"/>
@@ -5439,7 +5431,7 @@
       <c r="B56" s="37">
         <v>1</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="43">
         <v>5.5</v>
       </c>
       <c r="D56" s="37"/>
@@ -5485,7 +5477,7 @@
       <c r="AR56" s="37"/>
       <c r="AS56" s="37"/>
       <c r="AT56" s="37"/>
-      <c r="AU56" s="46"/>
+      <c r="AU56" s="45"/>
       <c r="AV56" s="37"/>
       <c r="AW56" s="38"/>
       <c r="AX56" s="34"/>
@@ -5495,7 +5487,7 @@
       <c r="BB56" s="34"/>
       <c r="BC56" s="34"/>
       <c r="BD56" s="34"/>
-      <c r="BE56" s="45"/>
+      <c r="BE56" s="44"/>
       <c r="BF56" s="40"/>
       <c r="BG56" s="40"/>
       <c r="BH56" s="37"/>
@@ -5533,277 +5525,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="49">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="48">
         <v>43546</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>1</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <v>0.5</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="46">
         <v>0.75</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <v>1</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$12,C$3:Z$3)</f>
         <v>3.5</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <f>SUM(B4:B9)</f>
         <v>20.5</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>6</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="46">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5812,7 +5804,7 @@
       <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5841,14 +5833,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>64</v>
       </c>
       <c r="E1">
@@ -5904,10 +5896,10 @@
       <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="54">
         <v>0</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="55">
         <v>0</v>
       </c>
       <c r="E2" s="5"/>
@@ -5924,14 +5916,14 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="57"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="54">
         <v>5</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>5</v>
       </c>
       <c r="E3" s="5"/>
@@ -5948,14 +5940,14 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="54">
         <v>2</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <v>1</v>
       </c>
       <c r="E4" s="5"/>
@@ -5963,7 +5955,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="58" t="s">
         <v>68</v>
       </c>
       <c r="K4" s="5"/>
@@ -5974,7 +5966,7 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="3" t="s">
         <v>69</v>
       </c>
@@ -6006,10 +5998,10 @@
       <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>0</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="55">
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
@@ -6026,14 +6018,14 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="57"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <v>5</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="55">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
@@ -6050,14 +6042,14 @@
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <v>2</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="55">
         <v>2</v>
       </c>
       <c r="E8" s="5"/>
@@ -6065,7 +6057,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="58" t="s">
         <v>68</v>
       </c>
       <c r="K8" s="5"/>
@@ -6076,7 +6068,7 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
@@ -6108,10 +6100,10 @@
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <v>35</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="55">
         <v>56</v>
       </c>
       <c r="E10" s="5"/>
@@ -6128,14 +6120,14 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="54">
         <v>5</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="55">
         <v>5</v>
       </c>
       <c r="E11" s="5"/>
@@ -6152,14 +6144,14 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="59">
         <v>2</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="55">
         <v>1</v>
       </c>
       <c r="E12" s="5"/>
@@ -6168,7 +6160,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="58" t="s">
         <v>68</v>
       </c>
       <c r="L12" s="5"/>
@@ -6178,12 +6170,12 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="55">
+      <c r="A13" s="57"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="54">
         <v>0</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="55">
         <v>0</v>
       </c>
       <c r="E13" s="5"/>
@@ -6200,12 +6192,12 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="55">
+      <c r="A14" s="57"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="54">
         <v>0</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="55">
         <v>0</v>
       </c>
       <c r="E14" s="5"/>
@@ -6222,8 +6214,8 @@
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="58"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="61" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="3">
@@ -6254,10 +6246,10 @@
       <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <v>0</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="55">
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
@@ -6274,14 +6266,14 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <v>5</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="55">
         <v>5</v>
       </c>
       <c r="E17" s="5"/>
@@ -6298,14 +6290,14 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="54">
         <v>2</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="55">
         <v>0.5</v>
       </c>
       <c r="E18" s="5"/>
@@ -6313,7 +6305,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="58" t="s">
         <v>68</v>
       </c>
       <c r="K18" s="5"/>
@@ -6324,8 +6316,8 @@
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="61" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="3">
@@ -6344,36 +6336,36 @@
       <c r="B20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <v>0</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="57"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <v>5</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="58"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56">
+      <c r="C22" s="54"/>
+      <c r="D22" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="58"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="61" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="3">
@@ -6392,40 +6384,40 @@
       <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <v>0</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="57"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <v>5</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="58"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="54">
         <v>2</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="61" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="3">
@@ -6438,8 +6430,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="63" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="7">
@@ -6452,7 +6444,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="64" t="s">
         <v>74</v>
       </c>
     </row>
